--- a/default-files/excel/Main/Localization/DONE-english/done-D道具列表_Items_hotfix.xlsx
+++ b/default-files/excel/Main/Localization/DONE-english/done-D道具列表_Items_hotfix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\excel\Main\Localization\DONE-english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC2E832-312A-44F5-A215-D3DFE852257F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB72BC4-8B3E-403B-989D-77BB3FB1F22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7005,10 +7005,6 @@
     <t>可在战斗中使用，撒出一团显形炉灰，持续10秒，使1200码范围内所有触碰到炉灰的隐身单位显形</t>
   </si>
   <si>
-    <t>After use, it reveals invisible enemies within 1200 cubits and forms a fog that lasts for 10 seconds, continuously revealing the invisible enemies within it.</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>Comida</t>
   </si>
   <si>
@@ -9711,6 +9707,9 @@
   </si>
   <si>
     <t>Uma harpa mágica encantada com arcana frequentemente vista em banquetes reais. Muitas vezes usada para incentivar a dança, também perturba os passos dos inimigos na batalha.</t>
+  </si>
+  <si>
+    <t>After use, it reveals invisible enemies within 1200 cubits and forms a fog that lasts for 10 seconds, continuously revealing the invisible enemies within it.</t>
   </si>
 </sst>
 </file>
@@ -10908,8 +10907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G855"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G101" sqref="G101"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C853" sqref="A1:G855"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10963,7 +10962,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="152" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="D3" s="5"/>
       <c r="F3" s="7"/>
@@ -10989,14 +10988,14 @@
         <v>13</v>
       </c>
       <c r="C5" s="152" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="D5" s="5"/>
       <c r="F5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="152" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33.75">
@@ -11007,14 +11006,14 @@
         <v>16</v>
       </c>
       <c r="C6" s="152" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="D6" s="5"/>
       <c r="F6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="152" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -11025,7 +11024,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="152" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="D7" s="5"/>
       <c r="F7" s="7"/>
@@ -11038,7 +11037,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="152" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="D8" s="5"/>
       <c r="F8" s="7"/>
@@ -11064,7 +11063,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="152" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="D10" s="5"/>
       <c r="F10" s="7"/>
@@ -11077,7 +11076,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="152" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="D11" s="8"/>
       <c r="F11" s="9"/>
@@ -11090,7 +11089,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="152" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="D12" s="8"/>
       <c r="F12" s="9"/>
@@ -11103,7 +11102,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="152" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="D13" s="10"/>
       <c r="F13" s="11"/>
@@ -11116,7 +11115,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="152" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="D14" s="12"/>
       <c r="F14" s="13"/>
@@ -11129,7 +11128,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="152" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="D15" s="12"/>
       <c r="F15" s="13"/>
@@ -11142,7 +11141,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="152" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="D16" s="12"/>
       <c r="F16" s="13"/>
@@ -11155,14 +11154,14 @@
         <v>29</v>
       </c>
       <c r="C17" s="152" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="D17" s="5"/>
       <c r="F17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G17" s="152" t="s">
-        <v>3101</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="33.75">
@@ -11180,7 +11179,7 @@
         <v>33</v>
       </c>
       <c r="G18" s="152" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="22.5">
@@ -11191,14 +11190,14 @@
         <v>34</v>
       </c>
       <c r="C19" s="152" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="D19" s="5"/>
       <c r="F19" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G19" s="152" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="33.75">
@@ -11209,14 +11208,14 @@
         <v>36</v>
       </c>
       <c r="C20" s="152" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="D20" s="5"/>
       <c r="F20" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G20" s="152" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -11227,14 +11226,14 @@
         <v>38</v>
       </c>
       <c r="C21" s="152" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="D21" s="5"/>
       <c r="F21" s="7" t="s">
         <v>39</v>
       </c>
       <c r="G21" s="152" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -11245,14 +11244,14 @@
         <v>40</v>
       </c>
       <c r="C22" s="152" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="D22" s="5"/>
       <c r="F22" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G22" s="152" t="s">
-        <v>3106</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -11263,14 +11262,14 @@
         <v>42</v>
       </c>
       <c r="C23" s="152" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="D23" s="14"/>
       <c r="F23" s="16" t="s">
         <v>43</v>
       </c>
       <c r="G23" s="152" t="s">
-        <v>3107</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -11281,14 +11280,14 @@
         <v>43</v>
       </c>
       <c r="C24" s="152" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="D24" s="14"/>
       <c r="F24" s="16" t="s">
         <v>43</v>
       </c>
       <c r="G24" s="152" t="s">
-        <v>3107</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="33.75">
@@ -11299,14 +11298,14 @@
         <v>44</v>
       </c>
       <c r="C25" s="152" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="D25" s="5"/>
       <c r="F25" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G25" s="152" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="33.75">
@@ -11317,14 +11316,14 @@
         <v>46</v>
       </c>
       <c r="C26" s="152" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="D26" s="5"/>
       <c r="F26" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G26" s="152" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="22.5">
@@ -11335,14 +11334,14 @@
         <v>48</v>
       </c>
       <c r="C27" s="152" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="D27" s="5"/>
       <c r="F27" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G27" s="152" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="22.5">
@@ -11353,14 +11352,14 @@
         <v>50</v>
       </c>
       <c r="C28" s="152" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="D28" s="5"/>
       <c r="F28" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G28" s="152" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="78.75">
@@ -11371,14 +11370,14 @@
         <v>52</v>
       </c>
       <c r="C29" s="152" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="D29" s="5"/>
       <c r="F29" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G29" s="152" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="78.75">
@@ -11389,14 +11388,14 @@
         <v>54</v>
       </c>
       <c r="C30" s="152" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="D30" s="5"/>
       <c r="F30" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G30" s="152" t="s">
-        <v>3113</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="90">
@@ -11407,14 +11406,14 @@
         <v>56</v>
       </c>
       <c r="C31" s="152" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="D31" s="5"/>
       <c r="F31" s="7" t="s">
         <v>57</v>
       </c>
       <c r="G31" s="152" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="90">
@@ -11425,14 +11424,14 @@
         <v>58</v>
       </c>
       <c r="C32" s="152" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="D32" s="5"/>
       <c r="F32" s="7" t="s">
         <v>59</v>
       </c>
       <c r="G32" s="152" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="67.5">
@@ -11443,14 +11442,14 @@
         <v>61</v>
       </c>
       <c r="C33" s="152" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="D33" s="5"/>
       <c r="F33" s="7" t="s">
         <v>62</v>
       </c>
       <c r="G33" s="152" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="67.5">
@@ -11461,14 +11460,14 @@
         <v>64</v>
       </c>
       <c r="C34" s="152" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="D34" s="5"/>
       <c r="F34" s="7" t="s">
         <v>65</v>
       </c>
       <c r="G34" s="152" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="67.5">
@@ -11479,14 +11478,14 @@
         <v>67</v>
       </c>
       <c r="C35" s="152" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="D35" s="5"/>
       <c r="F35" s="7" t="s">
         <v>68</v>
       </c>
       <c r="G35" s="152" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="67.5">
@@ -11497,14 +11496,14 @@
         <v>70</v>
       </c>
       <c r="C36" s="152" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D36" s="5"/>
       <c r="F36" s="7" t="s">
         <v>71</v>
       </c>
       <c r="G36" s="152" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="67.5">
@@ -11515,14 +11514,14 @@
         <v>73</v>
       </c>
       <c r="C37" s="152" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="D37" s="5"/>
       <c r="F37" s="7" t="s">
         <v>74</v>
       </c>
       <c r="G37" s="152" t="s">
-        <v>3120</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="67.5">
@@ -11533,14 +11532,14 @@
         <v>76</v>
       </c>
       <c r="C38" s="152" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="D38" s="5"/>
       <c r="F38" s="7" t="s">
         <v>77</v>
       </c>
       <c r="G38" s="152" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="67.5">
@@ -11551,14 +11550,14 @@
         <v>79</v>
       </c>
       <c r="C39" s="152" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="D39" s="5"/>
       <c r="F39" s="7" t="s">
         <v>80</v>
       </c>
       <c r="G39" s="152" t="s">
-        <v>3122</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -11569,7 +11568,7 @@
         <v>81</v>
       </c>
       <c r="C40" s="152" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="D40" s="5"/>
       <c r="F40" s="7"/>
@@ -11582,14 +11581,14 @@
         <v>83</v>
       </c>
       <c r="C41" s="152" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="D41" s="5"/>
       <c r="F41" s="7" t="s">
         <v>84</v>
       </c>
       <c r="G41" s="152" t="s">
-        <v>3123</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="56.25">
@@ -11600,14 +11599,14 @@
         <v>86</v>
       </c>
       <c r="C42" s="152" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="D42" s="5"/>
       <c r="F42" s="7" t="s">
         <v>87</v>
       </c>
       <c r="G42" s="152" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="67.5">
@@ -11618,14 +11617,14 @@
         <v>89</v>
       </c>
       <c r="C43" s="152" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="D43" s="5"/>
       <c r="F43" s="7" t="s">
         <v>90</v>
       </c>
       <c r="G43" s="152" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="67.5">
@@ -11636,14 +11635,14 @@
         <v>91</v>
       </c>
       <c r="C44" s="152" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="D44" s="5"/>
       <c r="F44" s="7" t="s">
         <v>92</v>
       </c>
       <c r="G44" s="152" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="67.5">
@@ -11654,14 +11653,14 @@
         <v>93</v>
       </c>
       <c r="C45" s="152" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="D45" s="5"/>
       <c r="F45" s="7" t="s">
         <v>94</v>
       </c>
       <c r="G45" s="152" t="s">
-        <v>3127</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="33.75">
@@ -11672,14 +11671,14 @@
         <v>95</v>
       </c>
       <c r="C46" s="152" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="D46" s="5"/>
       <c r="F46" s="7" t="s">
         <v>96</v>
       </c>
       <c r="G46" s="152" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="45">
@@ -11690,14 +11689,14 @@
         <v>97</v>
       </c>
       <c r="C47" s="152" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="D47" s="5"/>
       <c r="F47" s="20" t="s">
         <v>98</v>
       </c>
       <c r="G47" s="152" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -11708,7 +11707,7 @@
         <v>100</v>
       </c>
       <c r="C48" s="152" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="D48" s="5"/>
       <c r="F48" s="7"/>
@@ -11721,7 +11720,7 @@
         <v>101</v>
       </c>
       <c r="C49" s="152" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>102</v>
@@ -11733,7 +11732,7 @@
         <v>103</v>
       </c>
       <c r="G49" s="152" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="67.5">
@@ -11744,7 +11743,7 @@
         <v>104</v>
       </c>
       <c r="C50" s="152" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>105</v>
@@ -11756,7 +11755,7 @@
         <v>106</v>
       </c>
       <c r="G50" s="152" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="67.5">
@@ -11767,7 +11766,7 @@
         <v>107</v>
       </c>
       <c r="C51" s="152" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>108</v>
@@ -11779,7 +11778,7 @@
         <v>109</v>
       </c>
       <c r="G51" s="152" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="45">
@@ -11790,7 +11789,7 @@
         <v>110</v>
       </c>
       <c r="C52" s="152" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>108</v>
@@ -11802,7 +11801,7 @@
         <v>111</v>
       </c>
       <c r="G52" s="152" t="s">
-        <v>3133</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="90">
@@ -11813,7 +11812,7 @@
         <v>112</v>
       </c>
       <c r="C53" s="152" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>113</v>
@@ -11825,7 +11824,7 @@
         <v>114</v>
       </c>
       <c r="G53" s="152" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="56.25">
@@ -11836,7 +11835,7 @@
         <v>115</v>
       </c>
       <c r="C54" s="152" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>116</v>
@@ -11848,7 +11847,7 @@
         <v>117</v>
       </c>
       <c r="G54" s="152" t="s">
-        <v>3135</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="56.25">
@@ -11859,7 +11858,7 @@
         <v>118</v>
       </c>
       <c r="C55" s="152" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>105</v>
@@ -11871,7 +11870,7 @@
         <v>119</v>
       </c>
       <c r="G55" s="152" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="78.75">
@@ -11882,7 +11881,7 @@
         <v>120</v>
       </c>
       <c r="C56" s="152" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>121</v>
@@ -11894,7 +11893,7 @@
         <v>122</v>
       </c>
       <c r="G56" s="152" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="78.75">
@@ -11905,7 +11904,7 @@
         <v>124</v>
       </c>
       <c r="C57" s="152" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>125</v>
@@ -11917,7 +11916,7 @@
         <v>126</v>
       </c>
       <c r="G57" s="152" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="67.5">
@@ -11928,7 +11927,7 @@
         <v>127</v>
       </c>
       <c r="C58" s="152" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>125</v>
@@ -11940,7 +11939,7 @@
         <v>128</v>
       </c>
       <c r="G58" s="152" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="90">
@@ -11951,7 +11950,7 @@
         <v>129</v>
       </c>
       <c r="C59" s="152" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>125</v>
@@ -11963,7 +11962,7 @@
         <v>130</v>
       </c>
       <c r="G59" s="152" t="s">
-        <v>3140</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="135">
@@ -11974,7 +11973,7 @@
         <v>131</v>
       </c>
       <c r="C60" s="152" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>132</v>
@@ -11986,7 +11985,7 @@
         <v>133</v>
       </c>
       <c r="G60" s="152" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="168.75">
@@ -11997,7 +11996,7 @@
         <v>134</v>
       </c>
       <c r="C61" s="152" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>135</v>
@@ -12009,7 +12008,7 @@
         <v>136</v>
       </c>
       <c r="G61" s="152" t="s">
-        <v>3142</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="56.25">
@@ -12020,7 +12019,7 @@
         <v>137</v>
       </c>
       <c r="C62" s="152" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>132</v>
@@ -12032,7 +12031,7 @@
         <v>138</v>
       </c>
       <c r="G62" s="152" t="s">
-        <v>3143</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="33.75">
@@ -12043,7 +12042,7 @@
         <v>139</v>
       </c>
       <c r="C63" s="152" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>140</v>
@@ -12055,7 +12054,7 @@
         <v>141</v>
       </c>
       <c r="G63" s="152" t="s">
-        <v>3144</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="67.5">
@@ -12066,7 +12065,7 @@
         <v>142</v>
       </c>
       <c r="C64" s="152" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>132</v>
@@ -12078,7 +12077,7 @@
         <v>143</v>
       </c>
       <c r="G64" s="152" t="s">
-        <v>3145</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="56.25">
@@ -12089,7 +12088,7 @@
         <v>144</v>
       </c>
       <c r="C65" s="152" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>132</v>
@@ -12101,7 +12100,7 @@
         <v>145</v>
       </c>
       <c r="G65" s="152" t="s">
-        <v>3146</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="56.25">
@@ -12112,7 +12111,7 @@
         <v>146</v>
       </c>
       <c r="C66" s="152" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>147</v>
@@ -12124,7 +12123,7 @@
         <v>148</v>
       </c>
       <c r="G66" s="152" t="s">
-        <v>3147</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="67.5">
@@ -12135,7 +12134,7 @@
         <v>150</v>
       </c>
       <c r="C67" s="152" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>147</v>
@@ -12147,7 +12146,7 @@
         <v>151</v>
       </c>
       <c r="G67" s="152" t="s">
-        <v>3148</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="67.5">
@@ -12158,7 +12157,7 @@
         <v>153</v>
       </c>
       <c r="C68" s="152" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>147</v>
@@ -12170,7 +12169,7 @@
         <v>154</v>
       </c>
       <c r="G68" s="152" t="s">
-        <v>3149</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="67.5">
@@ -12181,7 +12180,7 @@
         <v>155</v>
       </c>
       <c r="C69" s="152" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>135</v>
@@ -12193,7 +12192,7 @@
         <v>156</v>
       </c>
       <c r="G69" s="152" t="s">
-        <v>3150</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="90">
@@ -12204,7 +12203,7 @@
         <v>158</v>
       </c>
       <c r="C70" s="152" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>132</v>
@@ -12216,7 +12215,7 @@
         <v>159</v>
       </c>
       <c r="G70" s="152" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="56.25">
@@ -12227,7 +12226,7 @@
         <v>160</v>
       </c>
       <c r="C71" s="152" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>132</v>
@@ -12239,7 +12238,7 @@
         <v>161</v>
       </c>
       <c r="G71" s="152" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="22.5">
@@ -12250,7 +12249,7 @@
         <v>163</v>
       </c>
       <c r="C72" s="152" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>132</v>
@@ -12262,7 +12261,7 @@
         <v>164</v>
       </c>
       <c r="G72" s="152" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="56.25">
@@ -12273,7 +12272,7 @@
         <v>165</v>
       </c>
       <c r="C73" s="152" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>166</v>
@@ -12285,7 +12284,7 @@
         <v>167</v>
       </c>
       <c r="G73" s="152" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="112.5">
@@ -12296,7 +12295,7 @@
         <v>169</v>
       </c>
       <c r="C74" s="152" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>170</v>
@@ -12308,7 +12307,7 @@
         <v>171</v>
       </c>
       <c r="G74" s="152" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="90">
@@ -12319,7 +12318,7 @@
         <v>172</v>
       </c>
       <c r="C75" s="152" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>173</v>
@@ -12331,7 +12330,7 @@
         <v>174</v>
       </c>
       <c r="G75" s="152" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="112.5">
@@ -12342,7 +12341,7 @@
         <v>176</v>
       </c>
       <c r="C76" s="152" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>177</v>
@@ -12354,7 +12353,7 @@
         <v>178</v>
       </c>
       <c r="G76" s="152" t="s">
-        <v>3157</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="90">
@@ -12365,7 +12364,7 @@
         <v>179</v>
       </c>
       <c r="C77" s="152" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>180</v>
@@ -12377,7 +12376,7 @@
         <v>181</v>
       </c>
       <c r="G77" s="152" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="67.5">
@@ -12388,7 +12387,7 @@
         <v>182</v>
       </c>
       <c r="C78" s="152" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>183</v>
@@ -12400,7 +12399,7 @@
         <v>184</v>
       </c>
       <c r="G78" s="152" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="101.25">
@@ -12411,7 +12410,7 @@
         <v>186</v>
       </c>
       <c r="C79" s="152" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>183</v>
@@ -12423,7 +12422,7 @@
         <v>187</v>
       </c>
       <c r="G79" s="152" t="s">
-        <v>3160</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="67.5">
@@ -12434,7 +12433,7 @@
         <v>188</v>
       </c>
       <c r="C80" s="152" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>189</v>
@@ -12446,7 +12445,7 @@
         <v>190</v>
       </c>
       <c r="G80" s="152" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="56.25">
@@ -12457,7 +12456,7 @@
         <v>191</v>
       </c>
       <c r="C81" s="152" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>132</v>
@@ -12469,7 +12468,7 @@
         <v>192</v>
       </c>
       <c r="G81" s="152" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="67.5">
@@ -12480,7 +12479,7 @@
         <v>193</v>
       </c>
       <c r="C82" s="152" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>132</v>
@@ -12492,7 +12491,7 @@
         <v>194</v>
       </c>
       <c r="G82" s="152" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="45">
@@ -12503,7 +12502,7 @@
         <v>195</v>
       </c>
       <c r="C83" s="152" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>132</v>
@@ -12515,7 +12514,7 @@
         <v>196</v>
       </c>
       <c r="G83" s="152" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="33.75">
@@ -12526,7 +12525,7 @@
         <v>197</v>
       </c>
       <c r="C84" s="152" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>147</v>
@@ -12538,7 +12537,7 @@
         <v>198</v>
       </c>
       <c r="G84" s="152" t="s">
-        <v>3165</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="78.75">
@@ -12549,7 +12548,7 @@
         <v>199</v>
       </c>
       <c r="C85" s="152" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>147</v>
@@ -12561,7 +12560,7 @@
         <v>200</v>
       </c>
       <c r="G85" s="152" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="56.25">
@@ -12572,7 +12571,7 @@
         <v>201</v>
       </c>
       <c r="C86" s="152" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>147</v>
@@ -12584,7 +12583,7 @@
         <v>202</v>
       </c>
       <c r="G86" s="152" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="33.75">
@@ -12595,7 +12594,7 @@
         <v>204</v>
       </c>
       <c r="C87" s="152" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>147</v>
@@ -12607,7 +12606,7 @@
         <v>205</v>
       </c>
       <c r="G87" s="152" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="67.5">
@@ -12618,7 +12617,7 @@
         <v>207</v>
       </c>
       <c r="C88" s="152" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>166</v>
@@ -12630,7 +12629,7 @@
         <v>208</v>
       </c>
       <c r="G88" s="152" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="90">
@@ -12641,7 +12640,7 @@
         <v>209</v>
       </c>
       <c r="C89" s="152" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>210</v>
@@ -12653,7 +12652,7 @@
         <v>211</v>
       </c>
       <c r="G89" s="152" t="s">
-        <v>3170</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="94.5">
@@ -12664,7 +12663,7 @@
         <v>213</v>
       </c>
       <c r="C90" s="152" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>180</v>
@@ -12676,7 +12675,7 @@
         <v>214</v>
       </c>
       <c r="G90" s="152" t="s">
-        <v>3171</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="81">
@@ -12687,7 +12686,7 @@
         <v>216</v>
       </c>
       <c r="C91" s="152" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>147</v>
@@ -12699,7 +12698,7 @@
         <v>217</v>
       </c>
       <c r="G91" s="152" t="s">
-        <v>3172</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="67.5">
@@ -12710,7 +12709,7 @@
         <v>218</v>
       </c>
       <c r="C92" s="152" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>147</v>
@@ -12722,7 +12721,7 @@
         <v>219</v>
       </c>
       <c r="G92" s="152" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="162">
@@ -12733,7 +12732,7 @@
         <v>221</v>
       </c>
       <c r="C93" s="152" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>147</v>
@@ -12745,7 +12744,7 @@
         <v>222</v>
       </c>
       <c r="G93" s="152" t="s">
-        <v>3174</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="56.25">
@@ -12756,7 +12755,7 @@
         <v>223</v>
       </c>
       <c r="C94" s="152" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>147</v>
@@ -12768,7 +12767,7 @@
         <v>224</v>
       </c>
       <c r="G94" s="152" t="s">
-        <v>3175</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="56.25">
@@ -12779,7 +12778,7 @@
         <v>226</v>
       </c>
       <c r="C95" s="152" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>183</v>
@@ -12791,7 +12790,7 @@
         <v>227</v>
       </c>
       <c r="G95" s="152" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="67.5">
@@ -12802,7 +12801,7 @@
         <v>228</v>
       </c>
       <c r="C96" s="152" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>183</v>
@@ -12814,7 +12813,7 @@
         <v>229</v>
       </c>
       <c r="G96" s="152" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="78.75">
@@ -12825,7 +12824,7 @@
         <v>230</v>
       </c>
       <c r="C97" s="152" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>231</v>
@@ -12837,7 +12836,7 @@
         <v>232</v>
       </c>
       <c r="G97" s="152" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="67.5">
@@ -12848,7 +12847,7 @@
         <v>234</v>
       </c>
       <c r="C98" s="152" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>235</v>
@@ -12860,7 +12859,7 @@
         <v>236</v>
       </c>
       <c r="G98" s="152" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="78.75">
@@ -12871,7 +12870,7 @@
         <v>237</v>
       </c>
       <c r="C99" s="152" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>177</v>
@@ -12883,7 +12882,7 @@
         <v>238</v>
       </c>
       <c r="G99" s="152" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="157.5">
@@ -12894,7 +12893,7 @@
         <v>239</v>
       </c>
       <c r="C100" s="152" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>240</v>
@@ -12906,7 +12905,7 @@
         <v>241</v>
       </c>
       <c r="G100" s="152" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="135">
@@ -12917,7 +12916,7 @@
         <v>242</v>
       </c>
       <c r="C101" s="152" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>183</v>
@@ -12940,7 +12939,7 @@
         <v>245</v>
       </c>
       <c r="C102" s="152" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>170</v>
@@ -12963,7 +12962,7 @@
         <v>248</v>
       </c>
       <c r="C103" s="152" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>210</v>
@@ -12986,7 +12985,7 @@
         <v>251</v>
       </c>
       <c r="C104" s="152" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>210</v>
@@ -13009,7 +13008,7 @@
         <v>255</v>
       </c>
       <c r="C105" s="152" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>183</v>
@@ -13032,7 +13031,7 @@
         <v>259</v>
       </c>
       <c r="C106" s="152" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>210</v>
@@ -13055,7 +13054,7 @@
         <v>263</v>
       </c>
       <c r="C107" s="152" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>210</v>
@@ -13078,7 +13077,7 @@
         <v>267</v>
       </c>
       <c r="C108" s="152" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>235</v>
@@ -13101,7 +13100,7 @@
         <v>271</v>
       </c>
       <c r="C109" s="152" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>272</v>
@@ -13124,7 +13123,7 @@
         <v>275</v>
       </c>
       <c r="C110" s="152" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>170</v>
@@ -13147,7 +13146,7 @@
         <v>279</v>
       </c>
       <c r="C111" s="152" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>280</v>
@@ -13170,7 +13169,7 @@
         <v>283</v>
       </c>
       <c r="C112" s="152" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>280</v>
@@ -13193,7 +13192,7 @@
         <v>287</v>
       </c>
       <c r="C113" s="152" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>231</v>
@@ -13216,7 +13215,7 @@
         <v>291</v>
       </c>
       <c r="C114" s="152" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>292</v>
@@ -13239,7 +13238,7 @@
         <v>295</v>
       </c>
       <c r="C115" s="152" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>280</v>
@@ -13262,7 +13261,7 @@
         <v>298</v>
       </c>
       <c r="C116" s="152" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>299</v>
@@ -13285,7 +13284,7 @@
         <v>303</v>
       </c>
       <c r="C117" s="152" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>292</v>
@@ -13308,7 +13307,7 @@
         <v>307</v>
       </c>
       <c r="C118" s="152" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>292</v>
@@ -13331,7 +13330,7 @@
         <v>311</v>
       </c>
       <c r="C119" s="152" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>312</v>
@@ -13354,7 +13353,7 @@
         <v>316</v>
       </c>
       <c r="C120" s="152" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>317</v>
@@ -13377,7 +13376,7 @@
         <v>321</v>
       </c>
       <c r="C121" s="152" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>180</v>
@@ -13400,7 +13399,7 @@
         <v>325</v>
       </c>
       <c r="C122" s="152" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>326</v>
@@ -13423,7 +13422,7 @@
         <v>330</v>
       </c>
       <c r="C123" s="152" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>292</v>
@@ -13446,7 +13445,7 @@
         <v>333</v>
       </c>
       <c r="C124" s="152" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>280</v>
@@ -13469,7 +13468,7 @@
         <v>336</v>
       </c>
       <c r="C125" s="152" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>317</v>
@@ -13492,7 +13491,7 @@
         <v>339</v>
       </c>
       <c r="C126" s="152" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>340</v>
@@ -13515,7 +13514,7 @@
         <v>343</v>
       </c>
       <c r="C127" s="152" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>235</v>
@@ -13538,7 +13537,7 @@
         <v>346</v>
       </c>
       <c r="C128" s="152" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>340</v>
@@ -13561,7 +13560,7 @@
         <v>350</v>
       </c>
       <c r="C129" s="152" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>231</v>
@@ -13584,7 +13583,7 @@
         <v>354</v>
       </c>
       <c r="C130" s="152" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>231</v>
@@ -13607,7 +13606,7 @@
         <v>358</v>
       </c>
       <c r="C131" s="152" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>359</v>
@@ -13630,7 +13629,7 @@
         <v>362</v>
       </c>
       <c r="C132" s="152" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>363</v>
@@ -13653,7 +13652,7 @@
         <v>366</v>
       </c>
       <c r="C133" s="152" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>235</v>
@@ -13676,7 +13675,7 @@
         <v>370</v>
       </c>
       <c r="C134" s="152" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>231</v>
@@ -13699,7 +13698,7 @@
         <v>374</v>
       </c>
       <c r="C135" s="152" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="D135" s="43" t="s">
         <v>375</v>
@@ -13722,7 +13721,7 @@
         <v>379</v>
       </c>
       <c r="C136" s="152" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="D136" s="43" t="s">
         <v>380</v>
@@ -13745,7 +13744,7 @@
         <v>382</v>
       </c>
       <c r="C137" s="152" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>383</v>
@@ -13768,7 +13767,7 @@
         <v>387</v>
       </c>
       <c r="C138" s="152" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>388</v>
@@ -13791,7 +13790,7 @@
         <v>392</v>
       </c>
       <c r="C139" s="152" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>383</v>
@@ -13837,7 +13836,7 @@
         <v>402</v>
       </c>
       <c r="C141" s="152" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>403</v>
@@ -13860,7 +13859,7 @@
         <v>407</v>
       </c>
       <c r="C142" s="152" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>235</v>
@@ -13883,7 +13882,7 @@
         <v>411</v>
       </c>
       <c r="C143" s="152" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>299</v>
@@ -13906,7 +13905,7 @@
         <v>415</v>
       </c>
       <c r="C144" s="152" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>317</v>
@@ -13929,7 +13928,7 @@
         <v>419</v>
       </c>
       <c r="C145" s="152" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>420</v>
@@ -13952,7 +13951,7 @@
         <v>423</v>
       </c>
       <c r="C146" s="152" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>424</v>
@@ -13975,7 +13974,7 @@
         <v>428</v>
       </c>
       <c r="C147" s="152" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>231</v>
@@ -13998,7 +13997,7 @@
         <v>432</v>
       </c>
       <c r="C148" s="152" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>433</v>
@@ -14021,7 +14020,7 @@
         <v>437</v>
       </c>
       <c r="C149" s="152" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="D149" s="8" t="s">
         <v>375</v>
@@ -14044,7 +14043,7 @@
         <v>438</v>
       </c>
       <c r="C150" s="152" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>388</v>
@@ -14067,7 +14066,7 @@
         <v>442</v>
       </c>
       <c r="C151" s="152" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="D151" s="51" t="s">
         <v>380</v>
@@ -14090,7 +14089,7 @@
         <v>446</v>
       </c>
       <c r="C152" s="152" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>375</v>
@@ -14113,7 +14112,7 @@
         <v>447</v>
       </c>
       <c r="C153" s="152" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>231</v>
@@ -14136,7 +14135,7 @@
         <v>450</v>
       </c>
       <c r="C154" s="152" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>375</v>
@@ -14159,7 +14158,7 @@
         <v>452</v>
       </c>
       <c r="C155" s="152" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="D155" s="8" t="s">
         <v>375</v>
@@ -14182,7 +14181,7 @@
         <v>454</v>
       </c>
       <c r="C156" s="152" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>380</v>
@@ -14205,7 +14204,7 @@
         <v>456</v>
       </c>
       <c r="C157" s="152" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>457</v>
@@ -14228,7 +14227,7 @@
         <v>459</v>
       </c>
       <c r="C158" s="152" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>375</v>
@@ -14251,7 +14250,7 @@
         <v>461</v>
       </c>
       <c r="C159" s="152" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="D159" s="8" t="s">
         <v>375</v>
@@ -14274,7 +14273,7 @@
         <v>463</v>
       </c>
       <c r="C160" s="152" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="D160" s="8" t="s">
         <v>375</v>
@@ -14297,7 +14296,7 @@
         <v>465</v>
       </c>
       <c r="C161" s="152" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="D161" s="8" t="s">
         <v>375</v>
@@ -14320,7 +14319,7 @@
         <v>467</v>
       </c>
       <c r="C162" s="152" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="D162" s="5" t="s">
         <v>375</v>
@@ -14343,7 +14342,7 @@
         <v>469</v>
       </c>
       <c r="C163" s="152" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>380</v>
@@ -14389,7 +14388,7 @@
         <v>474</v>
       </c>
       <c r="C165" s="152" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="D165" s="5" t="s">
         <v>457</v>
@@ -14412,7 +14411,7 @@
         <v>475</v>
       </c>
       <c r="C166" s="152" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>292</v>
@@ -14435,7 +14434,7 @@
         <v>479</v>
       </c>
       <c r="C167" s="152" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>480</v>
@@ -14458,7 +14457,7 @@
         <v>484</v>
       </c>
       <c r="C168" s="152" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="D168" s="5" t="s">
         <v>189</v>
@@ -14481,7 +14480,7 @@
         <v>488</v>
       </c>
       <c r="C169" s="152" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>189</v>
@@ -14504,7 +14503,7 @@
         <v>492</v>
       </c>
       <c r="C170" s="152" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="D170" s="5" t="s">
         <v>493</v>
@@ -14527,7 +14526,7 @@
         <v>497</v>
       </c>
       <c r="C171" s="152" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="D171" s="5" t="s">
         <v>493</v>
@@ -14550,7 +14549,7 @@
         <v>501</v>
       </c>
       <c r="C172" s="152" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="D172" s="5" t="s">
         <v>502</v>
@@ -14573,7 +14572,7 @@
         <v>506</v>
       </c>
       <c r="C173" s="152" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>502</v>
@@ -14596,7 +14595,7 @@
         <v>510</v>
       </c>
       <c r="C174" s="152" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="D174" s="5" t="s">
         <v>511</v>
@@ -14619,7 +14618,7 @@
         <v>515</v>
       </c>
       <c r="C175" s="152" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="D175" s="5" t="s">
         <v>516</v>
@@ -14642,7 +14641,7 @@
         <v>520</v>
       </c>
       <c r="C176" s="152" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>516</v>
@@ -14665,7 +14664,7 @@
         <v>523</v>
       </c>
       <c r="C177" s="152" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="D177" s="5"/>
       <c r="F177" s="16" t="s">
@@ -14683,7 +14682,7 @@
         <v>526</v>
       </c>
       <c r="C178" s="152" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="D178" s="5"/>
       <c r="F178" s="16" t="s">
@@ -14701,7 +14700,7 @@
         <v>529</v>
       </c>
       <c r="C179" s="152" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="D179" s="6" t="s">
         <v>530</v>
@@ -14724,7 +14723,7 @@
         <v>533</v>
       </c>
       <c r="C180" s="152" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="D180" s="5"/>
       <c r="F180" s="16" t="s">
@@ -14742,7 +14741,7 @@
         <v>536</v>
       </c>
       <c r="C181" s="152" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="D181" s="5" t="s">
         <v>105</v>
@@ -14765,7 +14764,7 @@
         <v>539</v>
       </c>
       <c r="C182" s="152" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="D182" s="5" t="s">
         <v>540</v>
@@ -14788,7 +14787,7 @@
         <v>543</v>
       </c>
       <c r="C183" s="152" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="D183" s="5" t="s">
         <v>540</v>
@@ -14811,7 +14810,7 @@
         <v>546</v>
       </c>
       <c r="C184" s="152" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="D184" s="6" t="s">
         <v>547</v>
@@ -14834,7 +14833,7 @@
         <v>550</v>
       </c>
       <c r="C185" s="152" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="D185" s="5" t="s">
         <v>125</v>
@@ -14857,7 +14856,7 @@
         <v>553</v>
       </c>
       <c r="C186" s="152" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="D186" s="5" t="s">
         <v>108</v>
@@ -14880,7 +14879,7 @@
         <v>556</v>
       </c>
       <c r="C187" s="152" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="D187" s="5" t="s">
         <v>105</v>
@@ -14903,7 +14902,7 @@
         <v>559</v>
       </c>
       <c r="C188" s="152" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="D188" s="5" t="s">
         <v>125</v>
@@ -14926,7 +14925,7 @@
         <v>562</v>
       </c>
       <c r="C189" s="152" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="D189" s="5" t="s">
         <v>125</v>
@@ -14949,7 +14948,7 @@
         <v>565</v>
       </c>
       <c r="C190" s="152" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="D190" s="5" t="s">
         <v>132</v>
@@ -14972,7 +14971,7 @@
         <v>568</v>
       </c>
       <c r="C191" s="152" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="D191" s="6" t="s">
         <v>569</v>
@@ -14995,7 +14994,7 @@
         <v>572</v>
       </c>
       <c r="C192" s="152" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="D192" s="5" t="s">
         <v>147</v>
@@ -15018,7 +15017,7 @@
         <v>575</v>
       </c>
       <c r="C193" s="152" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="D193" s="5" t="s">
         <v>125</v>
@@ -15041,7 +15040,7 @@
         <v>578</v>
       </c>
       <c r="C194" s="152" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="D194" s="5" t="s">
         <v>125</v>
@@ -15064,7 +15063,7 @@
         <v>581</v>
       </c>
       <c r="C195" s="152" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="D195" s="5" t="s">
         <v>210</v>
@@ -15087,7 +15086,7 @@
         <v>584</v>
       </c>
       <c r="C196" s="152" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="D196" s="6" t="s">
         <v>585</v>
@@ -15105,7 +15104,7 @@
         <v>586</v>
       </c>
       <c r="C197" s="152" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="D197" s="6" t="s">
         <v>587</v>
@@ -15128,7 +15127,7 @@
         <v>590</v>
       </c>
       <c r="C198" s="152" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="D198" s="5" t="s">
         <v>125</v>
@@ -15151,7 +15150,7 @@
         <v>593</v>
       </c>
       <c r="C199" s="152" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="D199" s="5" t="s">
         <v>125</v>
@@ -15174,7 +15173,7 @@
         <v>596</v>
       </c>
       <c r="C200" s="152" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="D200" s="6" t="s">
         <v>585</v>
@@ -15197,7 +15196,7 @@
         <v>599</v>
       </c>
       <c r="C201" s="152" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="D201" s="5" t="s">
         <v>125</v>
@@ -15220,7 +15219,7 @@
         <v>602</v>
       </c>
       <c r="C202" s="152" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="D202" s="5" t="s">
         <v>183</v>
@@ -15243,7 +15242,7 @@
         <v>605</v>
       </c>
       <c r="C203" s="152" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="D203" s="5" t="s">
         <v>183</v>
@@ -15266,7 +15265,7 @@
         <v>608</v>
       </c>
       <c r="C204" s="152" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="D204" s="5" t="s">
         <v>183</v>
@@ -15289,7 +15288,7 @@
         <v>611</v>
       </c>
       <c r="C205" s="152" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="D205" s="5" t="s">
         <v>132</v>
@@ -15312,7 +15311,7 @@
         <v>614</v>
       </c>
       <c r="C206" s="152" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="D206" s="5" t="s">
         <v>183</v>
@@ -15335,7 +15334,7 @@
         <v>617</v>
       </c>
       <c r="C207" s="152" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="D207" s="5" t="s">
         <v>312</v>
@@ -15358,7 +15357,7 @@
         <v>620</v>
       </c>
       <c r="C208" s="152" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="D208" s="6" t="s">
         <v>621</v>
@@ -15381,7 +15380,7 @@
         <v>624</v>
       </c>
       <c r="C209" s="152" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="D209" s="6" t="s">
         <v>621</v>
@@ -15404,7 +15403,7 @@
         <v>626</v>
       </c>
       <c r="C210" s="152" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="D210" s="5" t="s">
         <v>132</v>
@@ -15427,7 +15426,7 @@
         <v>629</v>
       </c>
       <c r="C211" s="152" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="D211" s="5" t="s">
         <v>132</v>
@@ -15450,7 +15449,7 @@
         <v>632</v>
       </c>
       <c r="C212" s="152" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="D212" s="6" t="s">
         <v>633</v>
@@ -15473,7 +15472,7 @@
         <v>636</v>
       </c>
       <c r="C213" s="152" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="D213" s="6" t="s">
         <v>637</v>
@@ -15496,7 +15495,7 @@
         <v>640</v>
       </c>
       <c r="C214" s="152" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="D214" s="6" t="s">
         <v>641</v>
@@ -15519,7 +15518,7 @@
         <v>644</v>
       </c>
       <c r="C215" s="152" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="D215" s="6" t="s">
         <v>645</v>
@@ -15542,7 +15541,7 @@
         <v>648</v>
       </c>
       <c r="C216" s="152" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="D216" s="5" t="s">
         <v>388</v>
@@ -15565,7 +15564,7 @@
         <v>651</v>
       </c>
       <c r="C217" s="152" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="D217" s="6" t="s">
         <v>652</v>
@@ -15588,7 +15587,7 @@
         <v>655</v>
       </c>
       <c r="C218" s="152" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="D218" s="5" t="s">
         <v>147</v>
@@ -15611,7 +15610,7 @@
         <v>658</v>
       </c>
       <c r="C219" s="152" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="D219" s="5" t="s">
         <v>147</v>
@@ -15634,7 +15633,7 @@
         <v>661</v>
       </c>
       <c r="C220" s="152" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="D220" s="43" t="s">
         <v>375</v>
@@ -15657,7 +15656,7 @@
         <v>663</v>
       </c>
       <c r="C221" s="152" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="D221" s="5" t="s">
         <v>664</v>
@@ -15680,7 +15679,7 @@
         <v>667</v>
       </c>
       <c r="C222" s="152" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="D222" s="51" t="s">
         <v>668</v>
@@ -15703,7 +15702,7 @@
         <v>672</v>
       </c>
       <c r="C223" s="152" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="D223" s="64" t="s">
         <v>673</v>
@@ -15726,7 +15725,7 @@
         <v>676</v>
       </c>
       <c r="C224" s="152" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="D224" s="43" t="s">
         <v>668</v>
@@ -15749,7 +15748,7 @@
         <v>677</v>
       </c>
       <c r="C225" s="152" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="D225" s="5"/>
       <c r="F225" s="27" t="s">
@@ -15767,7 +15766,7 @@
         <v>680</v>
       </c>
       <c r="C226" s="152" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="D226" s="5"/>
       <c r="F226" s="27" t="s">
@@ -15785,7 +15784,7 @@
         <v>683</v>
       </c>
       <c r="C227" s="152" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="D227" s="5"/>
       <c r="F227" s="27" t="s">
@@ -15803,7 +15802,7 @@
         <v>686</v>
       </c>
       <c r="C228" s="152" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="D228" s="5"/>
       <c r="F228" s="27" t="s">
@@ -15821,7 +15820,7 @@
         <v>689</v>
       </c>
       <c r="C229" s="152" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="D229" s="5"/>
       <c r="F229" s="4" t="s">
@@ -15839,7 +15838,7 @@
         <v>692</v>
       </c>
       <c r="C230" s="152" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="D230" s="5"/>
       <c r="F230" s="4" t="s">
@@ -15857,7 +15856,7 @@
         <v>695</v>
       </c>
       <c r="C231" s="152" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="D231" s="5"/>
       <c r="F231" s="21" t="s">
@@ -15875,7 +15874,7 @@
         <v>698</v>
       </c>
       <c r="C232" s="152" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="D232" s="5"/>
       <c r="F232" s="21" t="s">
@@ -15893,7 +15892,7 @@
         <v>701</v>
       </c>
       <c r="C233" s="152" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="D233" s="5"/>
       <c r="F233" s="66" t="s">
@@ -15911,7 +15910,7 @@
         <v>704</v>
       </c>
       <c r="C234" s="152" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="D234" s="5"/>
       <c r="F234" s="66" t="s">
@@ -15929,7 +15928,7 @@
         <v>707</v>
       </c>
       <c r="C235" s="152" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="D235" s="5"/>
       <c r="F235" s="66" t="s">
@@ -15947,7 +15946,7 @@
         <v>710</v>
       </c>
       <c r="C236" s="152" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="D236" s="5"/>
       <c r="F236" s="66" t="s">
@@ -15965,7 +15964,7 @@
         <v>713</v>
       </c>
       <c r="C237" s="152" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="D237" s="5"/>
       <c r="F237" s="66" t="s">
@@ -15983,7 +15982,7 @@
         <v>716</v>
       </c>
       <c r="C238" s="152" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="D238" s="5"/>
       <c r="F238" s="66" t="s">
@@ -16001,7 +16000,7 @@
         <v>719</v>
       </c>
       <c r="C239" s="152" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="D239" s="5"/>
       <c r="F239" s="66" t="s">
@@ -16019,7 +16018,7 @@
         <v>722</v>
       </c>
       <c r="C240" s="152" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="D240" s="5"/>
       <c r="F240" s="66" t="s">
@@ -16037,7 +16036,7 @@
         <v>725</v>
       </c>
       <c r="C241" s="152" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="D241" s="5"/>
       <c r="F241" s="66" t="s">
@@ -16055,7 +16054,7 @@
         <v>728</v>
       </c>
       <c r="C242" s="152" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="D242" s="5"/>
       <c r="F242" s="66" t="s">
@@ -16073,7 +16072,7 @@
         <v>731</v>
       </c>
       <c r="C243" s="152" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="D243" s="5"/>
       <c r="F243" s="4" t="s">
@@ -16091,7 +16090,7 @@
         <v>734</v>
       </c>
       <c r="C244" s="152" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="D244" s="5"/>
       <c r="F244" s="4" t="s">
@@ -16109,7 +16108,7 @@
         <v>738</v>
       </c>
       <c r="C245" s="152" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="D245" s="5"/>
       <c r="F245" s="21" t="s">
@@ -16127,7 +16126,7 @@
         <v>741</v>
       </c>
       <c r="C246" s="152" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="D246" s="5"/>
       <c r="F246" s="4" t="s">
@@ -16145,7 +16144,7 @@
         <v>744</v>
       </c>
       <c r="C247" s="152" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="D247" s="5"/>
       <c r="F247" s="21" t="s">
@@ -16163,7 +16162,7 @@
         <v>747</v>
       </c>
       <c r="C248" s="152" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="D248" s="5"/>
       <c r="F248" s="21" t="s">
@@ -16181,7 +16180,7 @@
         <v>750</v>
       </c>
       <c r="C249" s="152" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="D249" s="5"/>
       <c r="F249" s="21" t="s">
@@ -16199,7 +16198,7 @@
         <v>754</v>
       </c>
       <c r="C250" s="152" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="D250" s="69"/>
       <c r="F250" s="70" t="s">
@@ -16217,7 +16216,7 @@
         <v>756</v>
       </c>
       <c r="C251" s="152" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="D251" s="69"/>
       <c r="F251" s="70" t="s">
@@ -16235,7 +16234,7 @@
         <v>758</v>
       </c>
       <c r="C252" s="152" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="D252" s="5"/>
       <c r="F252" s="21" t="s">
@@ -16253,7 +16252,7 @@
         <v>761</v>
       </c>
       <c r="C253" s="152" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="D253" s="5"/>
       <c r="F253" s="21" t="s">
@@ -16271,7 +16270,7 @@
         <v>764</v>
       </c>
       <c r="C254" s="152" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="D254" s="5"/>
       <c r="F254" s="21" t="s">
@@ -16289,7 +16288,7 @@
         <v>767</v>
       </c>
       <c r="C255" s="152" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="D255" s="5"/>
       <c r="F255" s="21" t="s">
@@ -16307,7 +16306,7 @@
         <v>770</v>
       </c>
       <c r="C256" s="152" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="D256" s="5"/>
       <c r="F256" s="21" t="s">
@@ -16325,7 +16324,7 @@
         <v>774</v>
       </c>
       <c r="C257" s="152" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="D257" s="5"/>
       <c r="F257" s="21" t="s">
@@ -16343,7 +16342,7 @@
         <v>777</v>
       </c>
       <c r="C258" s="152" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="D258" s="5"/>
       <c r="F258" s="4" t="s">
@@ -16361,7 +16360,7 @@
         <v>780</v>
       </c>
       <c r="C259" s="152" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="D259" s="5"/>
       <c r="F259" s="4" t="s">
@@ -16379,7 +16378,7 @@
         <v>783</v>
       </c>
       <c r="C260" s="152" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="D260" s="5"/>
       <c r="F260" s="4" t="s">
@@ -16397,7 +16396,7 @@
         <v>786</v>
       </c>
       <c r="C261" s="152" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="D261" s="5"/>
       <c r="F261" s="21" t="s">
@@ -16415,7 +16414,7 @@
         <v>789</v>
       </c>
       <c r="C262" s="152" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="D262" s="5"/>
       <c r="F262" s="21" t="s">
@@ -16433,7 +16432,7 @@
         <v>792</v>
       </c>
       <c r="C263" s="152" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="D263" s="5"/>
       <c r="F263" s="4" t="s">
@@ -16451,7 +16450,7 @@
         <v>795</v>
       </c>
       <c r="C264" s="152" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="D264" s="5"/>
       <c r="F264" s="66" t="s">
@@ -16469,7 +16468,7 @@
         <v>798</v>
       </c>
       <c r="C265" s="152" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="D265" s="5"/>
       <c r="F265" s="66" t="s">
@@ -16487,7 +16486,7 @@
         <v>802</v>
       </c>
       <c r="C266" s="152" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="D266" s="5"/>
       <c r="F266" s="66" t="s">
@@ -16505,7 +16504,7 @@
         <v>806</v>
       </c>
       <c r="C267" s="152" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="D267" s="5"/>
       <c r="F267" s="66" t="s">
@@ -16523,7 +16522,7 @@
         <v>809</v>
       </c>
       <c r="C268" s="152" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="D268" s="5"/>
       <c r="F268" s="66" t="s">
@@ -16541,7 +16540,7 @@
         <v>813</v>
       </c>
       <c r="C269" s="152" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="D269" s="5"/>
       <c r="F269" s="66" t="s">
@@ -16559,7 +16558,7 @@
         <v>816</v>
       </c>
       <c r="C270" s="152" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="D270" s="5"/>
       <c r="F270" s="66" t="s">
@@ -16577,7 +16576,7 @@
         <v>819</v>
       </c>
       <c r="C271" s="152" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="D271" s="5"/>
       <c r="F271" s="72" t="s">
@@ -16595,7 +16594,7 @@
         <v>822</v>
       </c>
       <c r="C272" s="152" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="D272" s="5"/>
       <c r="F272" s="66" t="s">
@@ -16613,7 +16612,7 @@
         <v>825</v>
       </c>
       <c r="C273" s="152" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="D273" s="5"/>
       <c r="F273" s="66" t="s">
@@ -16631,7 +16630,7 @@
         <v>829</v>
       </c>
       <c r="C274" s="152" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="D274" s="5"/>
       <c r="F274" s="72" t="s">
@@ -16649,7 +16648,7 @@
         <v>833</v>
       </c>
       <c r="C275" s="152" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="D275" s="5"/>
       <c r="F275" s="72" t="s">
@@ -16667,7 +16666,7 @@
         <v>836</v>
       </c>
       <c r="C276" s="152" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="D276" s="5"/>
       <c r="F276" s="66" t="s">
@@ -16685,7 +16684,7 @@
         <v>840</v>
       </c>
       <c r="C277" s="152" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="D277" s="5"/>
       <c r="F277" s="72" t="s">
@@ -16703,7 +16702,7 @@
         <v>844</v>
       </c>
       <c r="C278" s="152" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="D278" s="5"/>
       <c r="F278" s="72" t="s">
@@ -16721,7 +16720,7 @@
         <v>848</v>
       </c>
       <c r="C279" s="152" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="D279" s="5"/>
       <c r="F279" s="72" t="s">
@@ -16739,7 +16738,7 @@
         <v>852</v>
       </c>
       <c r="C280" s="152" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="D280" s="5"/>
       <c r="F280" s="72" t="s">
@@ -16757,7 +16756,7 @@
         <v>856</v>
       </c>
       <c r="C281" s="152" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="D281" s="5"/>
       <c r="F281" s="66" t="s">
@@ -16775,7 +16774,7 @@
         <v>860</v>
       </c>
       <c r="C282" s="152" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="D282" s="5"/>
       <c r="F282" s="66" t="s">
@@ -16793,7 +16792,7 @@
         <v>863</v>
       </c>
       <c r="C283" s="152" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="D283" s="22"/>
       <c r="F283" s="23" t="s">
@@ -16811,7 +16810,7 @@
         <v>866</v>
       </c>
       <c r="C284" s="152" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="D284" s="22"/>
       <c r="F284" s="23" t="s">
@@ -16829,7 +16828,7 @@
         <v>869</v>
       </c>
       <c r="C285" s="152" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="D285" s="22"/>
       <c r="F285" s="23" t="s">
@@ -16847,7 +16846,7 @@
         <v>870</v>
       </c>
       <c r="C286" s="152" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="D286" s="22"/>
       <c r="F286" s="23" t="s">
@@ -16865,7 +16864,7 @@
         <v>871</v>
       </c>
       <c r="C287" s="152" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="D287" s="75"/>
       <c r="F287" s="76" t="s">
@@ -16883,7 +16882,7 @@
         <v>872</v>
       </c>
       <c r="C288" s="152" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="D288" s="75"/>
       <c r="F288" s="76" t="s">
@@ -16901,7 +16900,7 @@
         <v>873</v>
       </c>
       <c r="C289" s="152" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="D289" s="77"/>
       <c r="F289" s="76" t="s">
@@ -16919,7 +16918,7 @@
         <v>874</v>
       </c>
       <c r="C290" s="152" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="D290" s="77"/>
       <c r="F290" s="76" t="s">
@@ -16937,7 +16936,7 @@
         <v>875</v>
       </c>
       <c r="C291" s="152" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="D291" s="78"/>
       <c r="F291" s="76" t="s">
@@ -16955,7 +16954,7 @@
         <v>876</v>
       </c>
       <c r="C292" s="152" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="D292" s="78"/>
       <c r="F292" s="76" t="s">
@@ -16973,7 +16972,7 @@
         <v>877</v>
       </c>
       <c r="C293" s="152" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="D293" s="78"/>
       <c r="F293" s="76" t="s">
@@ -16991,7 +16990,7 @@
         <v>878</v>
       </c>
       <c r="C294" s="152" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="D294" s="78"/>
       <c r="F294" s="76" t="s">
@@ -17009,7 +17008,7 @@
         <v>879</v>
       </c>
       <c r="C295" s="152" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="D295" s="78"/>
       <c r="F295" s="76" t="s">
@@ -17027,7 +17026,7 @@
         <v>880</v>
       </c>
       <c r="C296" s="152" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="D296" s="78"/>
       <c r="F296" s="76" t="s">
@@ -17045,7 +17044,7 @@
         <v>881</v>
       </c>
       <c r="C297" s="152" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="D297" s="78"/>
       <c r="F297" s="76" t="s">
@@ -17063,7 +17062,7 @@
         <v>882</v>
       </c>
       <c r="C298" s="152" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="D298" s="77"/>
       <c r="F298" s="76" t="s">
@@ -17081,7 +17080,7 @@
         <v>883</v>
       </c>
       <c r="C299" s="152" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="D299" s="78"/>
       <c r="F299" s="79"/>
@@ -17094,7 +17093,7 @@
         <v>884</v>
       </c>
       <c r="C300" s="152" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="D300" s="77"/>
       <c r="F300" s="76"/>
@@ -17107,7 +17106,7 @@
         <v>885</v>
       </c>
       <c r="C301" s="152" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="D301" s="38"/>
       <c r="F301" s="80"/>
@@ -17120,7 +17119,7 @@
         <v>886</v>
       </c>
       <c r="C302" s="152" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="D302" s="38"/>
       <c r="F302" s="80"/>
@@ -17133,7 +17132,7 @@
         <v>887</v>
       </c>
       <c r="C303" s="152" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="D303" s="81"/>
       <c r="F303" s="82"/>
@@ -17146,7 +17145,7 @@
         <v>888</v>
       </c>
       <c r="C304" s="152" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="D304" s="81"/>
       <c r="F304" s="82"/>
@@ -17159,7 +17158,7 @@
         <v>889</v>
       </c>
       <c r="C305" s="152" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="D305" s="81"/>
       <c r="F305" s="82"/>
@@ -17172,7 +17171,7 @@
         <v>890</v>
       </c>
       <c r="C306" s="152" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="D306" s="77"/>
       <c r="F306" s="76"/>
@@ -17185,7 +17184,7 @@
         <v>891</v>
       </c>
       <c r="C307" s="152" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="D307" s="77"/>
       <c r="F307" s="76"/>
@@ -17198,7 +17197,7 @@
         <v>892</v>
       </c>
       <c r="C308" s="152" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="D308" s="77"/>
       <c r="F308" s="76"/>
@@ -17211,7 +17210,7 @@
         <v>893</v>
       </c>
       <c r="C309" s="152" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="D309" s="77"/>
       <c r="F309" s="76" t="s">
@@ -17229,7 +17228,7 @@
         <v>896</v>
       </c>
       <c r="C310" s="152" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="D310" s="8"/>
       <c r="F310" s="9"/>
@@ -17242,7 +17241,7 @@
         <v>897</v>
       </c>
       <c r="C311" s="152" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="D311" s="8"/>
       <c r="F311" s="9"/>
@@ -17255,7 +17254,7 @@
         <v>898</v>
       </c>
       <c r="C312" s="152" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="D312" s="55"/>
       <c r="F312" s="56"/>
@@ -17268,7 +17267,7 @@
         <v>899</v>
       </c>
       <c r="C313" s="152" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="D313" s="77"/>
       <c r="F313" s="76"/>
@@ -17281,7 +17280,7 @@
         <v>900</v>
       </c>
       <c r="C314" s="152" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="D314" s="69"/>
       <c r="F314" s="87"/>
@@ -17294,7 +17293,7 @@
         <v>901</v>
       </c>
       <c r="C315" s="152" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="D315" s="55"/>
       <c r="F315" s="56"/>
@@ -17307,7 +17306,7 @@
         <v>902</v>
       </c>
       <c r="C316" s="152" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="D316" s="55"/>
       <c r="F316" s="56"/>
@@ -17320,7 +17319,7 @@
         <v>903</v>
       </c>
       <c r="C317" s="152" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="D317" s="55"/>
       <c r="F317" s="56"/>
@@ -17333,7 +17332,7 @@
         <v>904</v>
       </c>
       <c r="C318" s="152" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="D318" s="55"/>
       <c r="F318" s="56"/>
@@ -17346,7 +17345,7 @@
         <v>905</v>
       </c>
       <c r="C319" s="152" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="D319" s="55"/>
       <c r="F319" s="56"/>
@@ -17359,7 +17358,7 @@
         <v>906</v>
       </c>
       <c r="C320" s="152" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="D320" s="55"/>
       <c r="F320" s="56"/>
@@ -17372,7 +17371,7 @@
         <v>907</v>
       </c>
       <c r="C321" s="152" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="D321" s="89"/>
       <c r="F321" s="90" t="s">
@@ -17390,7 +17389,7 @@
         <v>910</v>
       </c>
       <c r="C322" s="152" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="D322" s="55"/>
       <c r="F322" s="56"/>
@@ -17403,7 +17402,7 @@
         <v>911</v>
       </c>
       <c r="C323" s="152" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="D323" s="55"/>
       <c r="F323" s="56"/>
@@ -17416,7 +17415,7 @@
         <v>912</v>
       </c>
       <c r="C324" s="152" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="D324" s="55"/>
       <c r="F324" s="56" t="s">
@@ -17434,7 +17433,7 @@
         <v>915</v>
       </c>
       <c r="C325" s="152" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="D325" s="55"/>
       <c r="F325" s="56" t="s">
@@ -17452,7 +17451,7 @@
         <v>918</v>
       </c>
       <c r="C326" s="152" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="D326" s="69"/>
       <c r="F326" s="87"/>
@@ -17465,7 +17464,7 @@
         <v>919</v>
       </c>
       <c r="C327" s="152" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="D327" s="89"/>
       <c r="F327" s="90" t="s">
@@ -17483,7 +17482,7 @@
         <v>922</v>
       </c>
       <c r="C328" s="152" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="D328" s="55"/>
       <c r="F328" s="56" t="s">
@@ -17514,7 +17513,7 @@
         <v>927</v>
       </c>
       <c r="C330" s="152" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="D330" s="69"/>
       <c r="F330" s="87"/>
@@ -17527,7 +17526,7 @@
         <v>928</v>
       </c>
       <c r="C331" s="152" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="D331" s="55"/>
       <c r="F331" s="56" t="s">
@@ -17545,7 +17544,7 @@
         <v>931</v>
       </c>
       <c r="C332" s="152" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="D332" s="91"/>
       <c r="F332" s="92" t="s">
@@ -17563,7 +17562,7 @@
         <v>934</v>
       </c>
       <c r="C333" s="152" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="D333" s="91"/>
       <c r="F333" s="92" t="s">
@@ -17581,7 +17580,7 @@
         <v>935</v>
       </c>
       <c r="C334" s="152" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="D334" s="91"/>
       <c r="F334" s="92" t="s">
@@ -17599,7 +17598,7 @@
         <v>936</v>
       </c>
       <c r="C335" s="152" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="D335" s="91"/>
       <c r="F335" s="92" t="s">
@@ -17617,7 +17616,7 @@
         <v>937</v>
       </c>
       <c r="C336" s="152" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="D336" s="91"/>
       <c r="F336" s="92" t="s">
@@ -17635,7 +17634,7 @@
         <v>938</v>
       </c>
       <c r="C337" s="152" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="D337" s="91"/>
       <c r="F337" s="92" t="s">
@@ -17653,7 +17652,7 @@
         <v>939</v>
       </c>
       <c r="C338" s="152" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="D338" s="91"/>
       <c r="F338" s="92" t="s">
@@ -17671,7 +17670,7 @@
         <v>940</v>
       </c>
       <c r="C339" s="152" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="D339" s="78"/>
       <c r="F339" s="79" t="s">
@@ -17689,7 +17688,7 @@
         <v>943</v>
       </c>
       <c r="C340" s="152" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="D340" s="78"/>
       <c r="F340" s="79" t="s">
@@ -17707,7 +17706,7 @@
         <v>946</v>
       </c>
       <c r="C341" s="152" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="D341" s="78"/>
       <c r="F341" s="79" t="s">
@@ -17725,7 +17724,7 @@
         <v>10</v>
       </c>
       <c r="C342" s="152" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="D342" s="78"/>
       <c r="F342" s="79" t="s">
@@ -17743,7 +17742,7 @@
         <v>953</v>
       </c>
       <c r="C343" s="152" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="D343" s="14"/>
       <c r="F343" s="16" t="s">
@@ -17761,7 +17760,7 @@
         <v>957</v>
       </c>
       <c r="C344" s="152" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="D344" s="14"/>
       <c r="F344" s="16" t="s">
@@ -17779,7 +17778,7 @@
         <v>961</v>
       </c>
       <c r="C345" s="152" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="D345" s="14"/>
       <c r="F345" s="16" t="s">
@@ -17797,7 +17796,7 @@
         <v>965</v>
       </c>
       <c r="C346" s="152" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="D346" s="14"/>
       <c r="F346" s="16" t="s">
@@ -17815,7 +17814,7 @@
         <v>969</v>
       </c>
       <c r="C347" s="152" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="D347" s="14"/>
       <c r="F347" s="16" t="s">
@@ -17833,7 +17832,7 @@
         <v>973</v>
       </c>
       <c r="C348" s="152" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="D348" s="14"/>
       <c r="F348" s="16" t="s">
@@ -17851,7 +17850,7 @@
         <v>977</v>
       </c>
       <c r="C349" s="152" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="D349" s="14"/>
       <c r="F349" s="16" t="s">
@@ -17869,7 +17868,7 @@
         <v>981</v>
       </c>
       <c r="C350" s="152" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="D350" s="14"/>
       <c r="F350" s="16" t="s">
@@ -17887,7 +17886,7 @@
         <v>985</v>
       </c>
       <c r="C351" s="152" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="D351" s="14"/>
       <c r="F351" s="16" t="s">
@@ -17905,7 +17904,7 @@
         <v>989</v>
       </c>
       <c r="C352" s="152" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="D352" s="96"/>
       <c r="F352" s="97" t="s">
@@ -17923,7 +17922,7 @@
         <v>992</v>
       </c>
       <c r="C353" s="152" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="D353" s="14"/>
       <c r="F353" s="16" t="s">
@@ -17941,7 +17940,7 @@
         <v>995</v>
       </c>
       <c r="C354" s="152" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="D354" s="14"/>
       <c r="F354" s="16" t="s">
@@ -17959,7 +17958,7 @@
         <v>998</v>
       </c>
       <c r="C355" s="152" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="D355" s="14"/>
       <c r="F355" s="16" t="s">
@@ -17977,7 +17976,7 @@
         <v>1001</v>
       </c>
       <c r="C356" s="152" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="D356" s="14"/>
       <c r="F356" s="16" t="s">
@@ -17995,7 +17994,7 @@
         <v>1004</v>
       </c>
       <c r="C357" s="152" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="D357" s="14"/>
       <c r="F357" s="16" t="s">
@@ -18013,7 +18012,7 @@
         <v>1007</v>
       </c>
       <c r="C358" s="152" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="D358" s="14"/>
       <c r="F358" s="16" t="s">
@@ -18031,7 +18030,7 @@
         <v>1010</v>
       </c>
       <c r="C359" s="152" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="D359" s="14"/>
       <c r="F359" s="16" t="s">
@@ -18049,7 +18048,7 @@
         <v>1013</v>
       </c>
       <c r="C360" s="152" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="D360" s="14"/>
       <c r="F360" s="16" t="s">
@@ -18067,7 +18066,7 @@
         <v>1016</v>
       </c>
       <c r="C361" s="152" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="D361" s="14"/>
       <c r="F361" s="16" t="s">
@@ -18085,7 +18084,7 @@
         <v>1020</v>
       </c>
       <c r="C362" s="152" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="D362" s="14"/>
       <c r="F362" s="16" t="s">
@@ -18103,7 +18102,7 @@
         <v>1023</v>
       </c>
       <c r="C363" s="152" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="D363" s="14"/>
       <c r="F363" s="16" t="s">
@@ -18121,7 +18120,7 @@
         <v>1027</v>
       </c>
       <c r="C364" s="152" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="D364" s="14"/>
       <c r="F364" s="16" t="s">
@@ -18139,7 +18138,7 @@
         <v>1030</v>
       </c>
       <c r="C365" s="152" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="D365" s="78"/>
       <c r="F365" s="79" t="s">
@@ -18157,7 +18156,7 @@
         <v>1033</v>
       </c>
       <c r="C366" s="152" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="D366" s="14"/>
       <c r="F366" s="16" t="s">
@@ -18175,7 +18174,7 @@
         <v>1036</v>
       </c>
       <c r="C367" s="152" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="D367" s="14"/>
       <c r="F367" s="16" t="s">
@@ -18193,7 +18192,7 @@
         <v>1039</v>
       </c>
       <c r="C368" s="152" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="D368" s="14"/>
       <c r="F368" s="16" t="s">
@@ -18211,7 +18210,7 @@
         <v>1042</v>
       </c>
       <c r="C369" s="152" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="D369" s="14"/>
       <c r="F369" s="16" t="s">
@@ -18229,7 +18228,7 @@
         <v>1045</v>
       </c>
       <c r="C370" s="152" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="D370" s="14"/>
       <c r="F370" s="16" t="s">
@@ -18247,7 +18246,7 @@
         <v>1048</v>
       </c>
       <c r="C371" s="152" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="D371" s="14"/>
       <c r="F371" s="16" t="s">
@@ -18265,7 +18264,7 @@
         <v>1051</v>
       </c>
       <c r="C372" s="152" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="D372" s="14"/>
       <c r="F372" s="16" t="s">
@@ -18283,7 +18282,7 @@
         <v>1054</v>
       </c>
       <c r="C373" s="152" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="D373" s="14"/>
       <c r="F373" s="16" t="s">
@@ -18301,7 +18300,7 @@
         <v>1058</v>
       </c>
       <c r="C374" s="152" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="D374" s="14"/>
       <c r="F374" s="16" t="s">
@@ -18319,7 +18318,7 @@
         <v>1062</v>
       </c>
       <c r="C375" s="152" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="D375" s="14"/>
       <c r="F375" s="16" t="s">
@@ -18337,7 +18336,7 @@
         <v>1065</v>
       </c>
       <c r="C376" s="152" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="D376" s="14"/>
       <c r="F376" s="16" t="s">
@@ -18355,7 +18354,7 @@
         <v>1069</v>
       </c>
       <c r="C377" s="152" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="D377" s="14"/>
       <c r="F377" s="16" t="s">
@@ -18373,7 +18372,7 @@
         <v>1073</v>
       </c>
       <c r="C378" s="152" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="D378" s="14"/>
       <c r="F378" s="16" t="s">
@@ -18391,7 +18390,7 @@
         <v>1077</v>
       </c>
       <c r="C379" s="152" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="D379" s="14"/>
       <c r="F379" s="16" t="s">
@@ -18409,7 +18408,7 @@
         <v>1080</v>
       </c>
       <c r="C380" s="152" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="D380" s="14"/>
       <c r="F380" s="16" t="s">
@@ -18427,7 +18426,7 @@
         <v>1083</v>
       </c>
       <c r="C381" s="152" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="D381" s="14"/>
       <c r="F381" s="16" t="s">
@@ -18445,7 +18444,7 @@
         <v>1086</v>
       </c>
       <c r="C382" s="152" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="D382" s="14"/>
       <c r="F382" s="16" t="s">
@@ -18463,7 +18462,7 @@
         <v>1090</v>
       </c>
       <c r="C383" s="152" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="D383" s="28"/>
       <c r="F383" s="34" t="s">
@@ -18481,7 +18480,7 @@
         <v>1094</v>
       </c>
       <c r="C384" s="152" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="D384" s="65"/>
       <c r="F384" s="34" t="s">
@@ -18499,7 +18498,7 @@
         <v>1098</v>
       </c>
       <c r="C385" s="152" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="D385" s="65"/>
       <c r="F385" s="61" t="s">
@@ -18517,7 +18516,7 @@
         <v>1102</v>
       </c>
       <c r="C386" s="152" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="D386" s="65"/>
       <c r="F386" s="61" t="s">
@@ -18535,7 +18534,7 @@
         <v>1106</v>
       </c>
       <c r="C387" s="152" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="D387" s="65"/>
       <c r="F387" s="61" t="s">
@@ -18553,7 +18552,7 @@
         <v>1110</v>
       </c>
       <c r="C388" s="152" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="D388" s="65"/>
       <c r="F388" s="61" t="s">
@@ -18571,7 +18570,7 @@
         <v>1114</v>
       </c>
       <c r="C389" s="152" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="D389" s="69"/>
       <c r="F389" s="87"/>
@@ -18584,7 +18583,7 @@
         <v>1116</v>
       </c>
       <c r="C390" s="152" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="D390" s="69"/>
       <c r="F390" s="87"/>
@@ -18597,7 +18596,7 @@
         <v>1118</v>
       </c>
       <c r="C391" s="152" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="D391" s="69"/>
       <c r="F391" s="87"/>
@@ -18610,7 +18609,7 @@
         <v>1120</v>
       </c>
       <c r="C392" s="152" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="D392" s="71"/>
       <c r="F392" s="70"/>
@@ -18623,7 +18622,7 @@
         <v>1122</v>
       </c>
       <c r="C393" s="152" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="D393" s="28"/>
       <c r="F393" s="34" t="s">
@@ -18641,7 +18640,7 @@
         <v>1126</v>
       </c>
       <c r="C394" s="152" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="D394" s="65"/>
       <c r="F394" s="60" t="s">
@@ -18659,7 +18658,7 @@
         <v>1130</v>
       </c>
       <c r="C395" s="152" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="D395" s="65"/>
       <c r="F395" s="61" t="s">
@@ -18677,7 +18676,7 @@
         <v>1134</v>
       </c>
       <c r="C396" s="152" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="F396" s="25" t="s">
         <v>1135</v>
@@ -18694,7 +18693,7 @@
         <v>1138</v>
       </c>
       <c r="C397" s="152" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="F397" s="21" t="s">
         <v>1139</v>
@@ -18711,7 +18710,7 @@
         <v>1142</v>
       </c>
       <c r="C398" s="152" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="F398" s="21" t="s">
         <v>1143</v>
@@ -18728,7 +18727,7 @@
         <v>1146</v>
       </c>
       <c r="C399" s="152" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="F399" s="21" t="s">
         <v>1147</v>
@@ -18745,7 +18744,7 @@
         <v>1149</v>
       </c>
       <c r="C400" s="152" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="F400" s="21" t="s">
         <v>1150</v>
@@ -18762,7 +18761,7 @@
         <v>1152</v>
       </c>
       <c r="C401" s="152" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="F401" s="21" t="s">
         <v>1153</v>
@@ -18779,7 +18778,7 @@
         <v>1155</v>
       </c>
       <c r="C402" s="152" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="F402" s="21" t="s">
         <v>1156</v>
@@ -18796,7 +18795,7 @@
         <v>1158</v>
       </c>
       <c r="C403" s="152" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="D403" s="69"/>
       <c r="F403" s="87"/>
@@ -18809,7 +18808,7 @@
         <v>1159</v>
       </c>
       <c r="C404" s="152" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="D404" s="69"/>
       <c r="F404" s="87"/>
@@ -18822,7 +18821,7 @@
         <v>1160</v>
       </c>
       <c r="C405" s="152" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="D405" s="69"/>
       <c r="F405" s="87"/>
@@ -18835,7 +18834,7 @@
         <v>1161</v>
       </c>
       <c r="C406" s="152" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="D406" s="69"/>
       <c r="F406" s="87"/>
@@ -18848,7 +18847,7 @@
         <v>1162</v>
       </c>
       <c r="C407" s="152" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="D407" s="69"/>
       <c r="F407" s="87" t="s">
@@ -18866,7 +18865,7 @@
         <v>1165</v>
       </c>
       <c r="C408" s="152" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="D408" s="69"/>
       <c r="F408" s="87"/>
@@ -18879,7 +18878,7 @@
         <v>1167</v>
       </c>
       <c r="C409" s="152" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="D409" s="69"/>
       <c r="F409" s="87" t="s">
@@ -18897,7 +18896,7 @@
         <v>1171</v>
       </c>
       <c r="C410" s="152" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="D410" s="69"/>
       <c r="F410" s="87" t="s">
@@ -18915,7 +18914,7 @@
         <v>1175</v>
       </c>
       <c r="C411" s="152" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="D411" s="69"/>
       <c r="F411" s="87" t="s">
@@ -18933,7 +18932,7 @@
         <v>1178</v>
       </c>
       <c r="C412" s="152" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="D412" s="69"/>
       <c r="F412" s="87" t="s">
@@ -18951,7 +18950,7 @@
         <v>1181</v>
       </c>
       <c r="C413" s="152" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="D413" s="69"/>
       <c r="F413" s="87"/>
@@ -18964,7 +18963,7 @@
         <v>1182</v>
       </c>
       <c r="C414" s="152" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="D414" s="69"/>
       <c r="F414" s="87"/>
@@ -18977,7 +18976,7 @@
         <v>1183</v>
       </c>
       <c r="C415" s="152" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="D415" s="69"/>
       <c r="F415" s="87"/>
@@ -18990,7 +18989,7 @@
         <v>1184</v>
       </c>
       <c r="C416" s="152" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="D416" s="100"/>
       <c r="F416" s="101"/>
@@ -19003,7 +19002,7 @@
         <v>1185</v>
       </c>
       <c r="C417" s="152" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="D417" s="100"/>
       <c r="F417" s="101"/>
@@ -19016,7 +19015,7 @@
         <v>1186</v>
       </c>
       <c r="C418" s="152" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="D418" s="100"/>
       <c r="F418" s="101"/>
@@ -19029,7 +19028,7 @@
         <v>1187</v>
       </c>
       <c r="C419" s="152" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="D419" s="100"/>
       <c r="F419" s="101"/>
@@ -19042,7 +19041,7 @@
         <v>1188</v>
       </c>
       <c r="C420" s="152" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="D420" s="69"/>
       <c r="F420" s="87"/>
@@ -19055,7 +19054,7 @@
         <v>1189</v>
       </c>
       <c r="C421" s="152" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="D421" s="69"/>
       <c r="F421" s="87"/>
@@ -19068,7 +19067,7 @@
         <v>1190</v>
       </c>
       <c r="C422" s="152" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="D422" s="69"/>
       <c r="F422" s="87" t="s">
@@ -19086,7 +19085,7 @@
         <v>1193</v>
       </c>
       <c r="C423" s="152" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="D423" s="69"/>
       <c r="F423" s="87" t="s">
@@ -19104,7 +19103,7 @@
         <v>1194</v>
       </c>
       <c r="C424" s="152" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="D424" s="69"/>
       <c r="F424" s="87" t="s">
@@ -19122,7 +19121,7 @@
         <v>1195</v>
       </c>
       <c r="C425" s="152" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="D425" s="69"/>
       <c r="F425" s="87" t="s">
@@ -19140,7 +19139,7 @@
         <v>1198</v>
       </c>
       <c r="C426" s="152" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="D426" s="69"/>
       <c r="F426" s="87" t="s">
@@ -19158,7 +19157,7 @@
         <v>1199</v>
       </c>
       <c r="C427" s="152" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="D427" s="69"/>
       <c r="F427" s="87" t="s">
@@ -19176,7 +19175,7 @@
         <v>1200</v>
       </c>
       <c r="C428" s="152" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="D428" s="69"/>
       <c r="F428" s="87"/>
@@ -19189,7 +19188,7 @@
         <v>1201</v>
       </c>
       <c r="C429" s="152" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="D429" s="69"/>
       <c r="F429" s="87"/>
@@ -19202,7 +19201,7 @@
         <v>1202</v>
       </c>
       <c r="C430" s="152" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="D430" s="69"/>
       <c r="F430" s="87"/>
@@ -19215,7 +19214,7 @@
         <v>1203</v>
       </c>
       <c r="C431" s="152" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="D431" s="69"/>
       <c r="F431" s="87" t="s">
@@ -19233,7 +19232,7 @@
         <v>1206</v>
       </c>
       <c r="C432" s="152" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="D432" s="69"/>
       <c r="F432" s="87" t="s">
@@ -19251,7 +19250,7 @@
         <v>1209</v>
       </c>
       <c r="C433" s="152" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="D433" s="69"/>
       <c r="F433" s="87" t="s">
@@ -19269,7 +19268,7 @@
         <v>1210</v>
       </c>
       <c r="C434" s="152" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="D434" s="69"/>
       <c r="F434" s="87" t="s">
@@ -19287,7 +19286,7 @@
         <v>1211</v>
       </c>
       <c r="C435" s="152" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="D435" s="69"/>
       <c r="F435" s="87" t="s">
@@ -19305,7 +19304,7 @@
         <v>1214</v>
       </c>
       <c r="C436" s="152" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="D436" s="69"/>
       <c r="F436" s="87" t="s">
@@ -19323,7 +19322,7 @@
         <v>1217</v>
       </c>
       <c r="C437" s="152" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="D437" s="69"/>
       <c r="F437" s="87" t="s">
@@ -19341,7 +19340,7 @@
         <v>1220</v>
       </c>
       <c r="C438" s="152" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="D438" s="8"/>
       <c r="F438" s="9" t="s">
@@ -19359,7 +19358,7 @@
         <v>1223</v>
       </c>
       <c r="C439" s="152" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="D439" s="77"/>
       <c r="F439" s="76"/>
@@ -19372,7 +19371,7 @@
         <v>1224</v>
       </c>
       <c r="C440" s="152" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="D440" s="8"/>
       <c r="F440" s="9"/>
@@ -19385,7 +19384,7 @@
         <v>1225</v>
       </c>
       <c r="C441" s="152" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="D441" s="8"/>
       <c r="F441" s="9"/>
@@ -19398,7 +19397,7 @@
         <v>1226</v>
       </c>
       <c r="C442" s="152" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="D442" s="8"/>
       <c r="F442" s="9"/>
@@ -19411,7 +19410,7 @@
         <v>1227</v>
       </c>
       <c r="C443" s="152" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="D443" s="8"/>
       <c r="F443" s="9"/>
@@ -19424,7 +19423,7 @@
         <v>1228</v>
       </c>
       <c r="C444" s="152" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="D444" s="8"/>
       <c r="F444" s="9"/>
@@ -19437,7 +19436,7 @@
         <v>1229</v>
       </c>
       <c r="C445" s="152" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="D445" s="8"/>
       <c r="F445" s="9"/>
@@ -19450,7 +19449,7 @@
         <v>1230</v>
       </c>
       <c r="C446" s="152" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="D446" s="8"/>
       <c r="F446" s="9"/>
@@ -19463,7 +19462,7 @@
         <v>1231</v>
       </c>
       <c r="C447" s="152" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="D447" s="8"/>
       <c r="F447" s="9"/>
@@ -19476,7 +19475,7 @@
         <v>1233</v>
       </c>
       <c r="C448" s="152" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="D448" s="8"/>
       <c r="F448" s="9"/>
@@ -19489,7 +19488,7 @@
         <v>1234</v>
       </c>
       <c r="C449" s="152" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="D449" s="8"/>
       <c r="F449" s="9"/>
@@ -19502,7 +19501,7 @@
         <v>1236</v>
       </c>
       <c r="C450" s="152" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="D450" s="8"/>
       <c r="F450" s="9"/>
@@ -19515,7 +19514,7 @@
         <v>1238</v>
       </c>
       <c r="C451" s="152" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="D451" s="8"/>
       <c r="F451" s="9"/>
@@ -19528,7 +19527,7 @@
         <v>1240</v>
       </c>
       <c r="C452" s="152" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="D452" s="8"/>
       <c r="F452" s="9"/>
@@ -19541,7 +19540,7 @@
         <v>1242</v>
       </c>
       <c r="C453" s="152" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="D453" s="8"/>
       <c r="F453" s="9"/>
@@ -19554,7 +19553,7 @@
         <v>1244</v>
       </c>
       <c r="C454" s="152" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="D454" s="8"/>
       <c r="F454" s="9"/>
@@ -19567,7 +19566,7 @@
         <v>1246</v>
       </c>
       <c r="C455" s="152" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="D455" s="8"/>
       <c r="F455" s="9"/>
@@ -19580,7 +19579,7 @@
         <v>1248</v>
       </c>
       <c r="C456" s="152" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="D456" s="8"/>
       <c r="F456" s="9"/>
@@ -19593,7 +19592,7 @@
         <v>1249</v>
       </c>
       <c r="C457" s="152" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="D457" s="8"/>
       <c r="F457" s="9"/>
@@ -19606,7 +19605,7 @@
         <v>1251</v>
       </c>
       <c r="C458" s="152" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="D458" s="55"/>
       <c r="F458" s="56"/>
@@ -19619,7 +19618,7 @@
         <v>1253</v>
       </c>
       <c r="C459" s="152" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="D459" s="55"/>
       <c r="F459" s="56"/>
@@ -19632,7 +19631,7 @@
         <v>1254</v>
       </c>
       <c r="C460" s="152" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="D460" s="8"/>
       <c r="F460" s="9"/>
@@ -19645,7 +19644,7 @@
         <v>1256</v>
       </c>
       <c r="C461" s="152" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="D461" s="55"/>
       <c r="F461" s="56"/>
@@ -19658,7 +19657,7 @@
         <v>1257</v>
       </c>
       <c r="C462" s="152" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="D462" s="8"/>
       <c r="F462" s="9"/>
@@ -19671,7 +19670,7 @@
         <v>1259</v>
       </c>
       <c r="C463" s="152" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="D463" s="55"/>
       <c r="F463" s="56"/>
@@ -19684,7 +19683,7 @@
         <v>1260</v>
       </c>
       <c r="C464" s="152" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="D464" s="8"/>
       <c r="F464" s="9"/>
@@ -19697,7 +19696,7 @@
         <v>1262</v>
       </c>
       <c r="C465" s="152" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="D465" s="55"/>
       <c r="F465" s="56"/>
@@ -19710,7 +19709,7 @@
         <v>1263</v>
       </c>
       <c r="C466" s="152" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="D466" s="8"/>
       <c r="F466" s="9"/>
@@ -19723,7 +19722,7 @@
         <v>1264</v>
       </c>
       <c r="C467" s="152" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="D467" s="8"/>
       <c r="F467" s="9"/>
@@ -19736,7 +19735,7 @@
         <v>1265</v>
       </c>
       <c r="C468" s="152" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="D468" s="8"/>
       <c r="F468" s="9"/>
@@ -19749,7 +19748,7 @@
         <v>1266</v>
       </c>
       <c r="C469" s="152" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="D469" s="8"/>
       <c r="F469" s="9"/>
@@ -19762,7 +19761,7 @@
         <v>1267</v>
       </c>
       <c r="C470" s="152" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="D470" s="78"/>
       <c r="F470" s="79"/>
@@ -19775,7 +19774,7 @@
         <v>1268</v>
       </c>
       <c r="C471" s="152" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="D471" s="78"/>
       <c r="F471" s="79"/>
@@ -19788,7 +19787,7 @@
         <v>1269</v>
       </c>
       <c r="C472" s="152" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="D472" s="78"/>
       <c r="F472" s="79"/>
@@ -19801,7 +19800,7 @@
         <v>1270</v>
       </c>
       <c r="C473" s="152" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="D473" s="78"/>
       <c r="F473" s="79"/>
@@ -19814,7 +19813,7 @@
         <v>1272</v>
       </c>
       <c r="C474" s="152" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="D474" s="8"/>
       <c r="F474" s="9" t="s">
@@ -19832,7 +19831,7 @@
         <v>1276</v>
       </c>
       <c r="C475" s="152" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="D475" s="8"/>
       <c r="F475" s="9" t="s">
@@ -19850,7 +19849,7 @@
         <v>1280</v>
       </c>
       <c r="C476" s="152" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="D476" s="8"/>
       <c r="F476" s="9" t="s">
@@ -19868,7 +19867,7 @@
         <v>1284</v>
       </c>
       <c r="C477" s="152" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="D477" s="8"/>
       <c r="F477" s="9"/>
@@ -19881,7 +19880,7 @@
         <v>1286</v>
       </c>
       <c r="C478" s="152" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="D478" s="8"/>
       <c r="F478" s="9"/>
@@ -19894,7 +19893,7 @@
         <v>1288</v>
       </c>
       <c r="C479" s="152" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="D479" s="8"/>
       <c r="F479" s="9"/>
@@ -19907,7 +19906,7 @@
         <v>1290</v>
       </c>
       <c r="C480" s="152" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="D480" s="8"/>
       <c r="F480" s="9"/>
@@ -19920,7 +19919,7 @@
         <v>1292</v>
       </c>
       <c r="C481" s="152" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="D481" s="8"/>
       <c r="F481" s="9"/>
@@ -19933,7 +19932,7 @@
         <v>1294</v>
       </c>
       <c r="C482" s="152" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="D482" s="8"/>
       <c r="F482" s="9"/>
@@ -19946,7 +19945,7 @@
         <v>1296</v>
       </c>
       <c r="C483" s="152" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="D483" s="8"/>
       <c r="F483" s="9"/>
@@ -19959,7 +19958,7 @@
         <v>1297</v>
       </c>
       <c r="C484" s="152" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="D484" s="69"/>
       <c r="F484" s="87"/>
@@ -19972,7 +19971,7 @@
         <v>1298</v>
       </c>
       <c r="C485" s="152" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="D485" s="69"/>
       <c r="F485" s="87"/>
@@ -19985,7 +19984,7 @@
         <v>1299</v>
       </c>
       <c r="C486" s="152" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="D486" s="69"/>
       <c r="F486" s="87"/>
@@ -19998,7 +19997,7 @@
         <v>1300</v>
       </c>
       <c r="C487" s="152" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="D487" s="69"/>
       <c r="F487" s="87"/>
@@ -20011,7 +20010,7 @@
         <v>1301</v>
       </c>
       <c r="C488" s="152" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="D488" s="69"/>
       <c r="F488" s="87"/>
@@ -20024,7 +20023,7 @@
         <v>1302</v>
       </c>
       <c r="C489" s="152" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="D489" s="69"/>
       <c r="F489" s="87"/>
@@ -20037,7 +20036,7 @@
         <v>1303</v>
       </c>
       <c r="C490" s="152" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="D490" s="69"/>
       <c r="F490" s="87"/>
@@ -20050,7 +20049,7 @@
         <v>1304</v>
       </c>
       <c r="C491" s="152" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="D491" s="69"/>
       <c r="F491" s="87"/>
@@ -20063,7 +20062,7 @@
         <v>1305</v>
       </c>
       <c r="C492" s="152" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="D492" s="69"/>
       <c r="F492" s="87"/>
@@ -20076,7 +20075,7 @@
         <v>1306</v>
       </c>
       <c r="C493" s="152" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="D493" s="69"/>
       <c r="F493" s="87"/>
@@ -20089,7 +20088,7 @@
         <v>1307</v>
       </c>
       <c r="C494" s="152" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="D494" s="69"/>
       <c r="F494" s="87"/>
@@ -20102,7 +20101,7 @@
         <v>1308</v>
       </c>
       <c r="C495" s="152" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="D495" s="69"/>
       <c r="F495" s="87"/>
@@ -20115,7 +20114,7 @@
         <v>1309</v>
       </c>
       <c r="C496" s="152" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="D496" s="69"/>
       <c r="F496" s="87"/>
@@ -20128,7 +20127,7 @@
         <v>1310</v>
       </c>
       <c r="C497" s="152" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="D497" s="69"/>
       <c r="F497" s="87"/>
@@ -20141,7 +20140,7 @@
         <v>1311</v>
       </c>
       <c r="C498" s="152" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="D498" s="69"/>
       <c r="F498" s="87"/>
@@ -20154,7 +20153,7 @@
         <v>1312</v>
       </c>
       <c r="C499" s="152" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="D499" s="69"/>
       <c r="F499" s="87"/>
@@ -20167,7 +20166,7 @@
         <v>1313</v>
       </c>
       <c r="C500" s="152" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="D500" s="69"/>
       <c r="F500" s="87"/>
@@ -20180,7 +20179,7 @@
         <v>1314</v>
       </c>
       <c r="C501" s="152" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="D501" s="69"/>
       <c r="F501" s="87"/>
@@ -20206,7 +20205,7 @@
         <v>1317</v>
       </c>
       <c r="C503" s="152" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="D503" s="69"/>
       <c r="F503" s="87"/>
@@ -20219,7 +20218,7 @@
         <v>1318</v>
       </c>
       <c r="C504" s="152" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="D504" s="69"/>
       <c r="F504" s="87"/>
@@ -20232,7 +20231,7 @@
         <v>1319</v>
       </c>
       <c r="C505" s="152" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="D505" s="69"/>
       <c r="F505" s="87"/>
@@ -20245,7 +20244,7 @@
         <v>1320</v>
       </c>
       <c r="C506" s="152" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="D506" s="69"/>
       <c r="F506" s="87"/>
@@ -20258,7 +20257,7 @@
         <v>1321</v>
       </c>
       <c r="C507" s="152" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="D507" s="69"/>
       <c r="F507" s="87"/>
@@ -20271,7 +20270,7 @@
         <v>1322</v>
       </c>
       <c r="C508" s="152" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="D508" s="69"/>
       <c r="F508" s="87"/>
@@ -20284,7 +20283,7 @@
         <v>1323</v>
       </c>
       <c r="C509" s="152" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="D509" s="69"/>
       <c r="F509" s="87"/>
@@ -20297,7 +20296,7 @@
         <v>1324</v>
       </c>
       <c r="C510" s="152" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="D510" s="69"/>
       <c r="F510" s="87"/>
@@ -20310,7 +20309,7 @@
         <v>1325</v>
       </c>
       <c r="C511" s="152" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="D511" s="8"/>
       <c r="F511" s="9"/>
@@ -20323,7 +20322,7 @@
         <v>1326</v>
       </c>
       <c r="C512" s="152" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="D512" s="8"/>
       <c r="F512" s="9"/>
@@ -20336,7 +20335,7 @@
         <v>1327</v>
       </c>
       <c r="C513" s="152" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="D513" s="103"/>
       <c r="F513" s="104" t="s">
@@ -20354,7 +20353,7 @@
         <v>1330</v>
       </c>
       <c r="C514" s="152" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="D514" s="103"/>
       <c r="F514" s="104" t="s">
@@ -20372,7 +20371,7 @@
         <v>1333</v>
       </c>
       <c r="C515" s="152" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="D515" s="103"/>
       <c r="F515" s="104" t="s">
@@ -20390,7 +20389,7 @@
         <v>1336</v>
       </c>
       <c r="C516" s="152" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="D516" s="103"/>
       <c r="F516" s="104" t="s">
@@ -20408,7 +20407,7 @@
         <v>1339</v>
       </c>
       <c r="C517" s="152" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="D517" s="103"/>
       <c r="F517" s="104" t="s">
@@ -20426,7 +20425,7 @@
         <v>1342</v>
       </c>
       <c r="C518" s="152" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="D518" s="103"/>
       <c r="F518" s="104" t="s">
@@ -20444,7 +20443,7 @@
         <v>1345</v>
       </c>
       <c r="C519" s="152" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="D519" s="103"/>
       <c r="F519" s="104" t="s">
@@ -20462,7 +20461,7 @@
         <v>1348</v>
       </c>
       <c r="C520" s="152" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="D520" s="103"/>
       <c r="F520" s="104" t="s">
@@ -20480,7 +20479,7 @@
         <v>1351</v>
       </c>
       <c r="C521" s="152" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="D521" s="103"/>
       <c r="F521" s="104" t="s">
@@ -20498,7 +20497,7 @@
         <v>1354</v>
       </c>
       <c r="C522" s="152" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="D522" s="103"/>
       <c r="F522" s="104" t="s">
@@ -20516,7 +20515,7 @@
         <v>1357</v>
       </c>
       <c r="C523" s="152" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="D523" s="103"/>
       <c r="F523" s="104" t="s">
@@ -20534,7 +20533,7 @@
         <v>1360</v>
       </c>
       <c r="C524" s="152" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="D524" s="103"/>
       <c r="F524" s="104" t="s">
@@ -20552,7 +20551,7 @@
         <v>1363</v>
       </c>
       <c r="C525" s="152" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="D525" s="103"/>
       <c r="F525" s="104" t="s">
@@ -20570,7 +20569,7 @@
         <v>1366</v>
       </c>
       <c r="C526" s="152" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="D526" s="103"/>
       <c r="F526" s="104" t="s">
@@ -20588,7 +20587,7 @@
         <v>1369</v>
       </c>
       <c r="C527" s="152" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="D527" s="103"/>
       <c r="F527" s="104" t="s">
@@ -20606,7 +20605,7 @@
         <v>1372</v>
       </c>
       <c r="C528" s="152" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="D528" s="103"/>
       <c r="F528" s="104" t="s">
@@ -20624,7 +20623,7 @@
         <v>1375</v>
       </c>
       <c r="C529" s="152" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="D529" s="103"/>
       <c r="F529" s="104" t="s">
@@ -20642,7 +20641,7 @@
         <v>1376</v>
       </c>
       <c r="C530" s="152" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="D530" s="103"/>
       <c r="F530" s="104" t="s">
@@ -20660,7 +20659,7 @@
         <v>1378</v>
       </c>
       <c r="C531" s="152" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="D531" s="55"/>
       <c r="F531" s="56" t="s">
@@ -20678,7 +20677,7 @@
         <v>1381</v>
       </c>
       <c r="C532" s="152" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="D532" s="55"/>
       <c r="F532" s="56" t="s">
@@ -20696,7 +20695,7 @@
         <v>1384</v>
       </c>
       <c r="C533" s="152" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="D533" s="55"/>
       <c r="F533" s="56"/>
@@ -20709,7 +20708,7 @@
         <v>1385</v>
       </c>
       <c r="C534" s="152" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="D534" s="55"/>
       <c r="F534" s="56"/>
@@ -20722,7 +20721,7 @@
         <v>1386</v>
       </c>
       <c r="C535" s="152" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="D535" s="55"/>
       <c r="F535" s="56" t="s">
@@ -20740,7 +20739,7 @@
         <v>1390</v>
       </c>
       <c r="C536" s="152" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="D536" s="55"/>
       <c r="F536" s="56" t="s">
@@ -20758,7 +20757,7 @@
         <v>1393</v>
       </c>
       <c r="C537" s="152" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="D537" s="55"/>
       <c r="F537" s="56" t="s">
@@ -20776,7 +20775,7 @@
         <v>1394</v>
       </c>
       <c r="C538" s="152" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="D538" s="55"/>
       <c r="F538" s="56" t="s">
@@ -20794,7 +20793,7 @@
         <v>1395</v>
       </c>
       <c r="C539" s="152" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="D539" s="55"/>
       <c r="F539" s="56" t="s">
@@ -20812,7 +20811,7 @@
         <v>1397</v>
       </c>
       <c r="C540" s="152" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="D540" s="55"/>
       <c r="F540" s="56" t="s">
@@ -20830,7 +20829,7 @@
         <v>1401</v>
       </c>
       <c r="C541" s="152" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="D541" s="55"/>
       <c r="F541" s="56" t="s">
@@ -20848,7 +20847,7 @@
         <v>1403</v>
       </c>
       <c r="C542" s="152" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="D542" s="55"/>
       <c r="F542" s="56" t="s">
@@ -20866,7 +20865,7 @@
         <v>1405</v>
       </c>
       <c r="C543" s="152" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="D543" s="55"/>
       <c r="F543" s="56" t="s">
@@ -20884,7 +20883,7 @@
         <v>1407</v>
       </c>
       <c r="C544" s="152" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="D544" s="105"/>
       <c r="F544" s="106" t="s">
@@ -20902,7 +20901,7 @@
         <v>1411</v>
       </c>
       <c r="C545" s="152" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="D545" s="105"/>
       <c r="F545" s="106" t="s">
@@ -20920,7 +20919,7 @@
         <v>1413</v>
       </c>
       <c r="C546" s="152" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="D546" s="105"/>
       <c r="F546" s="106" t="s">
@@ -20938,7 +20937,7 @@
         <v>1415</v>
       </c>
       <c r="C547" s="152" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="D547" s="105"/>
       <c r="F547" s="106" t="s">
@@ -20956,7 +20955,7 @@
         <v>1417</v>
       </c>
       <c r="C548" s="152" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="D548" s="105"/>
       <c r="F548" s="106" t="s">
@@ -20974,7 +20973,7 @@
         <v>1419</v>
       </c>
       <c r="C549" s="152" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="D549" s="105"/>
       <c r="F549" s="106" t="s">
@@ -20992,7 +20991,7 @@
         <v>1421</v>
       </c>
       <c r="C550" s="152" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="D550" s="105"/>
       <c r="F550" s="106" t="s">
@@ -21010,7 +21009,7 @@
         <v>1423</v>
       </c>
       <c r="C551" s="152" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="D551" s="105"/>
       <c r="F551" s="106" t="s">
@@ -21028,7 +21027,7 @@
         <v>1425</v>
       </c>
       <c r="C552" s="152" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="D552" s="105"/>
       <c r="F552" s="106" t="s">
@@ -21046,7 +21045,7 @@
         <v>1427</v>
       </c>
       <c r="C553" s="152" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="D553" s="105"/>
       <c r="F553" s="106" t="s">
@@ -21064,7 +21063,7 @@
         <v>1429</v>
       </c>
       <c r="C554" s="152" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="D554" s="105"/>
       <c r="F554" s="106" t="s">
@@ -21082,7 +21081,7 @@
         <v>1431</v>
       </c>
       <c r="C555" s="152" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="D555" s="107"/>
       <c r="F555" s="108" t="s">
@@ -21100,7 +21099,7 @@
         <v>1433</v>
       </c>
       <c r="C556" s="152" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="D556" s="100"/>
       <c r="F556" s="101" t="s">
@@ -21118,7 +21117,7 @@
         <v>1435</v>
       </c>
       <c r="C557" s="152" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="D557" s="100"/>
       <c r="F557" s="101" t="s">
@@ -21136,7 +21135,7 @@
         <v>1437</v>
       </c>
       <c r="C558" s="152" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="D558" s="100"/>
       <c r="F558" s="101" t="s">
@@ -21154,7 +21153,7 @@
         <v>1439</v>
       </c>
       <c r="C559" s="152" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="D559" s="100"/>
       <c r="F559" s="101" t="s">
@@ -21172,7 +21171,7 @@
         <v>1441</v>
       </c>
       <c r="C560" s="152" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="D560" s="109"/>
       <c r="F560" s="110" t="s">
@@ -21190,7 +21189,7 @@
         <v>1443</v>
       </c>
       <c r="C561" s="152" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="D561" s="109"/>
       <c r="F561" s="110" t="s">
@@ -21208,7 +21207,7 @@
         <v>1445</v>
       </c>
       <c r="C562" s="152" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="D562" s="109"/>
       <c r="F562" s="110" t="s">
@@ -21226,7 +21225,7 @@
         <v>1447</v>
       </c>
       <c r="C563" s="152" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="D563" s="109"/>
       <c r="F563" s="110" t="s">
@@ -21244,7 +21243,7 @@
         <v>1449</v>
       </c>
       <c r="C564" s="152" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="D564" s="109"/>
       <c r="F564" s="110" t="s">
@@ -21262,7 +21261,7 @@
         <v>1451</v>
       </c>
       <c r="C565" s="152" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="D565" s="8"/>
       <c r="F565" s="9" t="s">
@@ -21280,7 +21279,7 @@
         <v>1453</v>
       </c>
       <c r="C566" s="152" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="D566" s="109"/>
       <c r="F566" s="110" t="s">
@@ -21298,7 +21297,7 @@
         <v>1455</v>
       </c>
       <c r="C567" s="152" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="D567" s="109"/>
       <c r="F567" s="110" t="s">
@@ -21316,7 +21315,7 @@
         <v>1457</v>
       </c>
       <c r="C568" s="152" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="D568" s="109"/>
       <c r="F568" s="110" t="s">
@@ -21334,7 +21333,7 @@
         <v>1459</v>
       </c>
       <c r="C569" s="152" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="D569" s="109"/>
       <c r="F569" s="110" t="s">
@@ -21352,7 +21351,7 @@
         <v>1461</v>
       </c>
       <c r="C570" s="152" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="D570" s="109"/>
       <c r="F570" s="110" t="s">
@@ -21370,7 +21369,7 @@
         <v>1463</v>
       </c>
       <c r="C571" s="152" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="D571" s="109"/>
       <c r="F571" s="110" t="s">
@@ -21388,7 +21387,7 @@
         <v>1465</v>
       </c>
       <c r="C572" s="152" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="D572" s="109"/>
       <c r="F572" s="110" t="s">
@@ -21406,7 +21405,7 @@
         <v>1467</v>
       </c>
       <c r="C573" s="152" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="D573" s="109"/>
       <c r="F573" s="110" t="s">
@@ -21424,7 +21423,7 @@
         <v>1469</v>
       </c>
       <c r="C574" s="152" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="D574" s="109"/>
       <c r="F574" s="110" t="s">
@@ -21442,7 +21441,7 @@
         <v>1471</v>
       </c>
       <c r="C575" s="152" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="D575" s="109"/>
       <c r="F575" s="110" t="s">
@@ -21460,7 +21459,7 @@
         <v>1473</v>
       </c>
       <c r="C576" s="152" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="D576" s="109"/>
       <c r="F576" s="110" t="s">
@@ -21478,7 +21477,7 @@
         <v>1475</v>
       </c>
       <c r="C577" s="152" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="D577" s="109"/>
       <c r="F577" s="110" t="s">
@@ -21496,7 +21495,7 @@
         <v>1477</v>
       </c>
       <c r="C578" s="152" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="D578" s="109"/>
       <c r="F578" s="110" t="s">
@@ -21514,7 +21513,7 @@
         <v>1479</v>
       </c>
       <c r="C579" s="152" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="D579" s="109"/>
       <c r="F579" s="110" t="s">
@@ -21532,7 +21531,7 @@
         <v>1481</v>
       </c>
       <c r="C580" s="152" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="D580" s="109"/>
       <c r="F580" s="110" t="s">
@@ -21550,7 +21549,7 @@
         <v>1483</v>
       </c>
       <c r="C581" s="152" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="D581" s="8"/>
       <c r="F581" s="9" t="s">
@@ -21568,7 +21567,7 @@
         <v>1485</v>
       </c>
       <c r="C582" s="152" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="D582" s="109"/>
       <c r="F582" s="110" t="s">
@@ -21586,7 +21585,7 @@
         <v>1487</v>
       </c>
       <c r="C583" s="152" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="D583" s="100"/>
       <c r="F583" s="106" t="s">
@@ -21604,7 +21603,7 @@
         <v>1489</v>
       </c>
       <c r="C584" s="152" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="D584" s="100"/>
       <c r="F584" s="106" t="s">
@@ -21622,7 +21621,7 @@
         <v>1491</v>
       </c>
       <c r="C585" s="152" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="D585" s="100"/>
       <c r="F585" s="106" t="s">
@@ -21640,7 +21639,7 @@
         <v>1493</v>
       </c>
       <c r="C586" s="152" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="D586" s="100"/>
       <c r="F586" s="106" t="s">
@@ -21658,7 +21657,7 @@
         <v>1494</v>
       </c>
       <c r="C587" s="152" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="D587" s="78"/>
       <c r="F587" s="76" t="s">
@@ -21676,7 +21675,7 @@
         <v>1497</v>
       </c>
       <c r="C588" s="152" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="D588" s="78"/>
       <c r="F588" s="76" t="s">
@@ -21712,7 +21711,7 @@
         <v>1504</v>
       </c>
       <c r="C590" s="152" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="D590" s="77"/>
       <c r="F590" s="76" t="s">
@@ -21730,7 +21729,7 @@
         <v>1507</v>
       </c>
       <c r="C591" s="152" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="D591" s="77"/>
       <c r="F591" s="76" t="s">
@@ -21748,7 +21747,7 @@
         <v>1510</v>
       </c>
       <c r="C592" s="152" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="D592" s="77"/>
       <c r="F592" s="76" t="s">
@@ -21766,7 +21765,7 @@
         <v>1513</v>
       </c>
       <c r="C593" s="152" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="D593" s="77"/>
       <c r="F593" s="76" t="s">
@@ -21784,7 +21783,7 @@
         <v>1514</v>
       </c>
       <c r="C594" s="152" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="D594" s="77"/>
       <c r="F594" s="76" t="s">
@@ -21802,7 +21801,7 @@
         <v>1517</v>
       </c>
       <c r="C595" s="152" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="D595" s="77"/>
       <c r="F595" s="76" t="s">
@@ -21820,7 +21819,7 @@
         <v>1518</v>
       </c>
       <c r="C596" s="152" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="D596" s="77"/>
       <c r="F596" s="76" t="s">
@@ -21838,7 +21837,7 @@
         <v>1521</v>
       </c>
       <c r="C597" s="152" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="D597" s="77"/>
       <c r="F597" s="76" t="s">
@@ -21856,7 +21855,7 @@
         <v>1522</v>
       </c>
       <c r="C598" s="152" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="D598" s="77"/>
       <c r="F598" s="76" t="s">
@@ -21874,7 +21873,7 @@
         <v>1525</v>
       </c>
       <c r="C599" s="152" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="D599" s="77"/>
       <c r="F599" s="76" t="s">
@@ -21892,7 +21891,7 @@
         <v>1528</v>
       </c>
       <c r="C600" s="152" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="D600" s="77"/>
       <c r="F600" s="76" t="s">
@@ -21910,7 +21909,7 @@
         <v>1529</v>
       </c>
       <c r="C601" s="152" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="D601" s="77"/>
       <c r="F601" s="76" t="s">
@@ -21928,7 +21927,7 @@
         <v>1530</v>
       </c>
       <c r="C602" s="152" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="D602" s="77"/>
       <c r="F602" s="76" t="s">
@@ -21946,7 +21945,7 @@
         <v>1531</v>
       </c>
       <c r="C603" s="152" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="D603" s="77"/>
       <c r="F603" s="76" t="s">
@@ -21964,7 +21963,7 @@
         <v>1532</v>
       </c>
       <c r="C604" s="152" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="D604" s="77"/>
       <c r="F604" s="76" t="s">
@@ -21982,7 +21981,7 @@
         <v>1535</v>
       </c>
       <c r="C605" s="152" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="D605" s="77"/>
       <c r="F605" s="76" t="s">
@@ -22000,7 +21999,7 @@
         <v>1536</v>
       </c>
       <c r="C606" s="152" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="D606" s="77"/>
       <c r="F606" s="76" t="s">
@@ -22018,7 +22017,7 @@
         <v>1537</v>
       </c>
       <c r="C607" s="152" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="D607" s="77"/>
       <c r="F607" s="76" t="s">
@@ -22036,7 +22035,7 @@
         <v>1540</v>
       </c>
       <c r="C608" s="152" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D608" s="77"/>
       <c r="F608" s="76" t="s">
@@ -22054,7 +22053,7 @@
         <v>1543</v>
       </c>
       <c r="C609" s="152" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="D609" s="77"/>
       <c r="F609" s="76" t="s">
@@ -22072,7 +22071,7 @@
         <v>1546</v>
       </c>
       <c r="C610" s="152" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="D610" s="77"/>
       <c r="F610" s="76" t="s">
@@ -22090,7 +22089,7 @@
         <v>1549</v>
       </c>
       <c r="C611" s="152" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="D611" s="77"/>
       <c r="F611" s="76" t="s">
@@ -22108,7 +22107,7 @@
         <v>1550</v>
       </c>
       <c r="C612" s="152" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="D612" s="77"/>
       <c r="F612" s="76" t="s">
@@ -22126,7 +22125,7 @@
         <v>1553</v>
       </c>
       <c r="C613" s="152" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="D613" s="77"/>
       <c r="F613" s="76" t="s">
@@ -22144,7 +22143,7 @@
         <v>1554</v>
       </c>
       <c r="C614" s="152" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="D614" s="77"/>
       <c r="F614" s="76" t="s">
@@ -22162,7 +22161,7 @@
         <v>1557</v>
       </c>
       <c r="C615" s="152" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="D615" s="78"/>
       <c r="F615" s="79" t="s">
@@ -22180,7 +22179,7 @@
         <v>1560</v>
       </c>
       <c r="C616" s="152" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="D616" s="55"/>
       <c r="F616" s="56"/>
@@ -22193,7 +22192,7 @@
         <v>1561</v>
       </c>
       <c r="C617" s="152" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="D617" s="55"/>
       <c r="F617" s="56"/>
@@ -22206,7 +22205,7 @@
         <v>1562</v>
       </c>
       <c r="C618" s="152" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="D618" s="55"/>
       <c r="F618" s="56"/>
@@ -22219,7 +22218,7 @@
         <v>1563</v>
       </c>
       <c r="C619" s="152" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="D619" s="55"/>
       <c r="F619" s="56"/>
@@ -22232,7 +22231,7 @@
         <v>1564</v>
       </c>
       <c r="C620" s="152" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="D620" s="55"/>
       <c r="F620" s="56"/>
@@ -22245,7 +22244,7 @@
         <v>1565</v>
       </c>
       <c r="C621" s="152" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="D621" s="55"/>
       <c r="F621" s="56"/>
@@ -22258,7 +22257,7 @@
         <v>1567</v>
       </c>
       <c r="C622" s="152" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="D622" s="111"/>
       <c r="F622" s="112" t="s">
@@ -22276,7 +22275,7 @@
         <v>1571</v>
       </c>
       <c r="C623" s="152" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="D623" s="111"/>
       <c r="F623" s="112" t="s">
@@ -22294,7 +22293,7 @@
         <v>1575</v>
       </c>
       <c r="C624" s="152" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="D624" s="111"/>
       <c r="F624" s="112" t="s">
@@ -22312,7 +22311,7 @@
         <v>1579</v>
       </c>
       <c r="C625" s="152" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="D625" s="111"/>
       <c r="F625" s="112" t="s">
@@ -22330,7 +22329,7 @@
         <v>1583</v>
       </c>
       <c r="C626" s="152" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="D626" s="111"/>
       <c r="F626" s="112" t="s">
@@ -22348,7 +22347,7 @@
         <v>1587</v>
       </c>
       <c r="C627" s="152" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="D627" s="111"/>
       <c r="F627" s="112" t="s">
@@ -22366,7 +22365,7 @@
         <v>1591</v>
       </c>
       <c r="C628" s="152" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="D628" s="111"/>
       <c r="F628" s="112" t="s">
@@ -22384,7 +22383,7 @@
         <v>1595</v>
       </c>
       <c r="C629" s="152" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="D629" s="111"/>
       <c r="F629" s="112" t="s">
@@ -22402,7 +22401,7 @@
         <v>1599</v>
       </c>
       <c r="C630" s="152" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="D630" s="111"/>
       <c r="F630" s="112" t="s">
@@ -22420,7 +22419,7 @@
         <v>1603</v>
       </c>
       <c r="C631" s="152" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="D631" s="111"/>
       <c r="F631" s="112" t="s">
@@ -22438,7 +22437,7 @@
         <v>1607</v>
       </c>
       <c r="C632" s="152" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="D632" s="111"/>
       <c r="F632" s="112" t="s">
@@ -22456,7 +22455,7 @@
         <v>1611</v>
       </c>
       <c r="C633" s="152" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="D633" s="111"/>
       <c r="F633" s="112" t="s">
@@ -22474,7 +22473,7 @@
         <v>1615</v>
       </c>
       <c r="C634" s="152" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="D634" s="111"/>
       <c r="F634" s="112" t="s">
@@ -22492,7 +22491,7 @@
         <v>1619</v>
       </c>
       <c r="C635" s="152" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="D635" s="111"/>
       <c r="F635" s="112" t="s">
@@ -22510,7 +22509,7 @@
         <v>1623</v>
       </c>
       <c r="C636" s="152" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="D636" s="111"/>
       <c r="F636" s="112" t="s">
@@ -22528,7 +22527,7 @@
         <v>1627</v>
       </c>
       <c r="C637" s="152" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="D637" s="111"/>
       <c r="F637" s="112" t="s">
@@ -22546,7 +22545,7 @@
         <v>1631</v>
       </c>
       <c r="C638" s="152" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="D638" s="111"/>
       <c r="F638" s="112" t="s">
@@ -22564,7 +22563,7 @@
         <v>1635</v>
       </c>
       <c r="C639" s="152" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="D639" s="111"/>
       <c r="F639" s="112" t="s">
@@ -22582,7 +22581,7 @@
         <v>1639</v>
       </c>
       <c r="C640" s="152" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="D640" s="111"/>
       <c r="F640" s="112" t="s">
@@ -22600,7 +22599,7 @@
         <v>1643</v>
       </c>
       <c r="C641" s="152" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="D641" s="111"/>
       <c r="F641" s="112" t="s">
@@ -22618,7 +22617,7 @@
         <v>1645</v>
       </c>
       <c r="C642" s="152" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="D642" s="69"/>
       <c r="F642" s="87" t="s">
@@ -22636,7 +22635,7 @@
         <v>1649</v>
       </c>
       <c r="C643" s="152" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="D643" s="69"/>
       <c r="F643" s="87" t="s">
@@ -22654,7 +22653,7 @@
         <v>1653</v>
       </c>
       <c r="C644" s="152" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="D644" s="69"/>
       <c r="F644" s="87" t="s">
@@ -22672,7 +22671,7 @@
         <v>1657</v>
       </c>
       <c r="C645" s="152" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="D645" s="69"/>
       <c r="F645" s="87" t="s">
@@ -22690,7 +22689,7 @@
         <v>1661</v>
       </c>
       <c r="C646" s="152" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="D646" s="69"/>
       <c r="F646" s="87" t="s">
@@ -22708,7 +22707,7 @@
         <v>1665</v>
       </c>
       <c r="C647" s="152" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="D647" s="69"/>
       <c r="F647" s="87" t="s">
@@ -22726,7 +22725,7 @@
         <v>1669</v>
       </c>
       <c r="C648" s="152" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="D648" s="69"/>
       <c r="F648" s="87" t="s">
@@ -22744,7 +22743,7 @@
         <v>1673</v>
       </c>
       <c r="C649" s="152" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="D649" s="69"/>
       <c r="F649" s="87" t="s">
@@ -22762,7 +22761,7 @@
         <v>1677</v>
       </c>
       <c r="C650" s="152" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="D650" s="69"/>
       <c r="F650" s="87" t="s">
@@ -22780,7 +22779,7 @@
         <v>1681</v>
       </c>
       <c r="C651" s="152" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="D651" s="69"/>
       <c r="F651" s="87" t="s">
@@ -22798,7 +22797,7 @@
         <v>1685</v>
       </c>
       <c r="C652" s="152" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="D652" s="69"/>
       <c r="F652" s="87" t="s">
@@ -22816,7 +22815,7 @@
         <v>1689</v>
       </c>
       <c r="C653" s="152" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="D653" s="69"/>
       <c r="F653" s="87" t="s">
@@ -22834,7 +22833,7 @@
         <v>1693</v>
       </c>
       <c r="C654" s="152" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="D654" s="69"/>
       <c r="F654" s="87" t="s">
@@ -22852,7 +22851,7 @@
         <v>1697</v>
       </c>
       <c r="C655" s="152" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="D655" s="69"/>
       <c r="F655" s="87" t="s">
@@ -22870,7 +22869,7 @@
         <v>1701</v>
       </c>
       <c r="C656" s="152" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="D656" s="69"/>
       <c r="F656" s="87" t="s">
@@ -22888,7 +22887,7 @@
         <v>1705</v>
       </c>
       <c r="C657" s="152" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="D657" s="69"/>
       <c r="F657" s="87" t="s">
@@ -22906,7 +22905,7 @@
         <v>1709</v>
       </c>
       <c r="C658" s="152" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="D658" s="69"/>
       <c r="F658" s="87" t="s">
@@ -22924,7 +22923,7 @@
         <v>1713</v>
       </c>
       <c r="C659" s="152" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="D659" s="69"/>
       <c r="F659" s="87" t="s">
@@ -22942,7 +22941,7 @@
         <v>1716</v>
       </c>
       <c r="C660" s="152" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="D660" s="113"/>
       <c r="F660" s="114" t="s">
@@ -22960,7 +22959,7 @@
         <v>1719</v>
       </c>
       <c r="C661" s="152" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="D661" s="115"/>
       <c r="F661" s="116" t="s">
@@ -22978,7 +22977,7 @@
         <v>1723</v>
       </c>
       <c r="C662" s="152" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="D662" s="115"/>
       <c r="F662" s="116" t="s">
@@ -22996,7 +22995,7 @@
         <v>1727</v>
       </c>
       <c r="C663" s="152" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="D663" s="115"/>
       <c r="F663" s="116" t="s">
@@ -23014,7 +23013,7 @@
         <v>1731</v>
       </c>
       <c r="C664" s="152" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="D664" s="115"/>
       <c r="F664" s="116" t="s">
@@ -23032,7 +23031,7 @@
         <v>1735</v>
       </c>
       <c r="C665" s="152" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="D665" s="115"/>
       <c r="F665" s="116" t="s">
@@ -23050,7 +23049,7 @@
         <v>1739</v>
       </c>
       <c r="C666" s="152" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="D666" s="115"/>
       <c r="F666" s="116" t="s">
@@ -23068,7 +23067,7 @@
         <v>1743</v>
       </c>
       <c r="C667" s="152" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="D667" s="115"/>
       <c r="F667" s="116" t="s">
@@ -23086,7 +23085,7 @@
         <v>1746</v>
       </c>
       <c r="C668" s="152" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
       <c r="D668" s="115"/>
       <c r="F668" s="116" t="s">
@@ -23104,7 +23103,7 @@
         <v>1750</v>
       </c>
       <c r="C669" s="152" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="D669" s="115"/>
       <c r="F669" s="116" t="s">
@@ -23122,7 +23121,7 @@
         <v>1754</v>
       </c>
       <c r="C670" s="152" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="D670" s="115"/>
       <c r="F670" s="116" t="s">
@@ -23140,7 +23139,7 @@
         <v>1758</v>
       </c>
       <c r="C671" s="152" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="D671" s="115"/>
       <c r="F671" s="116" t="s">
@@ -23158,7 +23157,7 @@
         <v>1762</v>
       </c>
       <c r="C672" s="152" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="D672" s="115"/>
       <c r="F672" s="116" t="s">
@@ -23176,7 +23175,7 @@
         <v>1766</v>
       </c>
       <c r="C673" s="152" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="D673" s="115"/>
       <c r="F673" s="116" t="s">
@@ -23194,7 +23193,7 @@
         <v>1770</v>
       </c>
       <c r="C674" s="152" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="D674" s="115"/>
       <c r="F674" s="116" t="s">
@@ -23212,7 +23211,7 @@
         <v>1774</v>
       </c>
       <c r="C675" s="152" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="D675" s="115"/>
       <c r="F675" s="116" t="s">
@@ -23230,7 +23229,7 @@
         <v>1775</v>
       </c>
       <c r="C676" s="152" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="D676" s="115"/>
       <c r="F676" s="116" t="s">
@@ -23248,7 +23247,7 @@
         <v>1778</v>
       </c>
       <c r="C677" s="152" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="D677" s="118"/>
       <c r="F677" s="119" t="s">
@@ -23266,7 +23265,7 @@
         <v>1781</v>
       </c>
       <c r="C678" s="152" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="D678" s="118"/>
       <c r="F678" s="119" t="s">
@@ -23284,7 +23283,7 @@
         <v>1784</v>
       </c>
       <c r="C679" s="152" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="D679" s="118"/>
       <c r="F679" s="119" t="s">
@@ -23302,7 +23301,7 @@
         <v>1787</v>
       </c>
       <c r="C680" s="152" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
       <c r="D680" s="118"/>
       <c r="F680" s="119" t="s">
@@ -23320,7 +23319,7 @@
         <v>1790</v>
       </c>
       <c r="C681" s="152" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="D681" s="118"/>
       <c r="F681" s="119" t="s">
@@ -23338,7 +23337,7 @@
         <v>1793</v>
       </c>
       <c r="C682" s="152" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
       <c r="D682" s="118"/>
       <c r="F682" s="119" t="s">
@@ -23356,7 +23355,7 @@
         <v>1796</v>
       </c>
       <c r="C683" s="152" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="D683" s="118"/>
       <c r="F683" s="119" t="s">
@@ -23374,7 +23373,7 @@
         <v>1799</v>
       </c>
       <c r="C684" s="152" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
       <c r="D684" s="43"/>
       <c r="F684" s="120" t="s">
@@ -23392,7 +23391,7 @@
         <v>1802</v>
       </c>
       <c r="C685" s="152" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
       <c r="D685" s="43"/>
       <c r="F685" s="120" t="s">
@@ -23410,7 +23409,7 @@
         <v>1805</v>
       </c>
       <c r="C686" s="152" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
       <c r="D686" s="43"/>
       <c r="F686" s="120" t="s">
@@ -23428,7 +23427,7 @@
         <v>1808</v>
       </c>
       <c r="C687" s="152" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
       <c r="D687" s="43"/>
       <c r="F687" s="120" t="s">
@@ -23446,7 +23445,7 @@
         <v>1811</v>
       </c>
       <c r="C688" s="152" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="D688" s="43"/>
       <c r="F688" s="120" t="s">
@@ -23464,7 +23463,7 @@
         <v>1814</v>
       </c>
       <c r="C689" s="152" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
       <c r="D689" s="43"/>
       <c r="F689" s="120" t="s">
@@ -23482,7 +23481,7 @@
         <v>1817</v>
       </c>
       <c r="C690" s="152" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
       <c r="D690" s="43"/>
       <c r="F690" s="120" t="s">
@@ -23500,7 +23499,7 @@
         <v>1820</v>
       </c>
       <c r="C691" s="152" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
       <c r="D691" s="43"/>
       <c r="F691" s="120" t="s">
@@ -23518,7 +23517,7 @@
         <v>1822</v>
       </c>
       <c r="C692" s="152" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="D692" s="43"/>
       <c r="F692" s="120" t="s">
@@ -23536,7 +23535,7 @@
         <v>1825</v>
       </c>
       <c r="C693" s="152" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
       <c r="D693" s="43"/>
       <c r="F693" s="120" t="s">
@@ -23554,7 +23553,7 @@
         <v>1828</v>
       </c>
       <c r="C694" s="152" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="D694" s="43"/>
       <c r="F694" s="120" t="s">
@@ -23572,7 +23571,7 @@
         <v>1831</v>
       </c>
       <c r="C695" s="152" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="D695" s="43"/>
       <c r="F695" s="120" t="s">
@@ -23590,7 +23589,7 @@
         <v>1834</v>
       </c>
       <c r="C696" s="152" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="D696" s="43"/>
       <c r="F696" s="120" t="s">
@@ -23608,7 +23607,7 @@
         <v>1837</v>
       </c>
       <c r="C697" s="152" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="D697" s="43"/>
       <c r="F697" s="120" t="s">
@@ -23626,7 +23625,7 @@
         <v>1840</v>
       </c>
       <c r="C698" s="152" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="D698" s="43"/>
       <c r="F698" s="120" t="s">
@@ -23644,7 +23643,7 @@
         <v>1843</v>
       </c>
       <c r="C699" s="152" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="D699" s="43"/>
       <c r="F699" s="120" t="s">
@@ -23662,7 +23661,7 @@
         <v>1846</v>
       </c>
       <c r="C700" s="152" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="D700" s="43"/>
       <c r="F700" s="120" t="s">
@@ -23680,7 +23679,7 @@
         <v>1849</v>
       </c>
       <c r="C701" s="152" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="D701" s="43"/>
       <c r="F701" s="120" t="s">
@@ -23698,7 +23697,7 @@
         <v>1852</v>
       </c>
       <c r="C702" s="152" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
       <c r="D702" s="43"/>
       <c r="F702" s="120" t="s">
@@ -23716,7 +23715,7 @@
         <v>1855</v>
       </c>
       <c r="C703" s="152" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="D703" s="43"/>
       <c r="F703" s="120" t="s">
@@ -23734,7 +23733,7 @@
         <v>1858</v>
       </c>
       <c r="C704" s="152" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="D704" s="43"/>
       <c r="F704" s="120" t="s">
@@ -23752,7 +23751,7 @@
         <v>1861</v>
       </c>
       <c r="C705" s="152" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="D705" s="43"/>
       <c r="F705" s="120" t="s">
@@ -23770,7 +23769,7 @@
         <v>1864</v>
       </c>
       <c r="C706" s="152" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="D706" s="43"/>
       <c r="F706" s="120" t="s">
@@ -23788,7 +23787,7 @@
         <v>1867</v>
       </c>
       <c r="C707" s="152" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="D707" s="43"/>
       <c r="F707" s="120" t="s">
@@ -23806,7 +23805,7 @@
         <v>1870</v>
       </c>
       <c r="C708" s="152" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="D708" s="43"/>
       <c r="F708" s="120" t="s">
@@ -23824,7 +23823,7 @@
         <v>1873</v>
       </c>
       <c r="C709" s="152" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="D709" s="43"/>
       <c r="F709" s="120" t="s">
@@ -23842,7 +23841,7 @@
         <v>1876</v>
       </c>
       <c r="C710" s="152" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="D710" s="43"/>
       <c r="F710" s="120" t="s">
@@ -23860,7 +23859,7 @@
         <v>1880</v>
       </c>
       <c r="C711" s="152" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="D711" s="43"/>
       <c r="F711" s="120" t="s">
@@ -23878,7 +23877,7 @@
         <v>1884</v>
       </c>
       <c r="C712" s="152" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="D712" s="43"/>
       <c r="F712" s="120" t="s">
@@ -23896,7 +23895,7 @@
         <v>1888</v>
       </c>
       <c r="C713" s="152" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="D713" s="43"/>
       <c r="F713" s="120" t="s">
@@ -23914,7 +23913,7 @@
         <v>1892</v>
       </c>
       <c r="C714" s="152" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="D714" s="14"/>
       <c r="F714" s="16" t="s">
@@ -23932,7 +23931,7 @@
         <v>1896</v>
       </c>
       <c r="C715" s="152" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="F715" s="25" t="s">
         <v>1897</v>
@@ -23949,7 +23948,7 @@
         <v>1900</v>
       </c>
       <c r="C716" s="152" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="F716" s="25" t="s">
         <v>1901</v>
@@ -23966,7 +23965,7 @@
         <v>1904</v>
       </c>
       <c r="C717" s="152" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="F717" s="25" t="s">
         <v>1905</v>
@@ -23983,7 +23982,7 @@
         <v>1907</v>
       </c>
       <c r="C718" s="152" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="F718" s="25" t="s">
         <v>1908</v>
@@ -24000,7 +23999,7 @@
         <v>1910</v>
       </c>
       <c r="C719" s="152" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="F719" s="25" t="s">
         <v>1911</v>
@@ -24017,7 +24016,7 @@
         <v>1913</v>
       </c>
       <c r="C720" s="152" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="F720" s="25" t="s">
         <v>1914</v>
@@ -24034,7 +24033,7 @@
         <v>1916</v>
       </c>
       <c r="C721" s="152" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="F721" s="25" t="s">
         <v>1917</v>
@@ -24051,7 +24050,7 @@
         <v>1920</v>
       </c>
       <c r="C722" s="152" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="F722" s="25" t="s">
         <v>1921</v>
@@ -24068,7 +24067,7 @@
         <v>1924</v>
       </c>
       <c r="C723" s="152" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="F723" s="25" t="s">
         <v>1925</v>
@@ -24085,7 +24084,7 @@
         <v>1928</v>
       </c>
       <c r="C724" s="152" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="F724" s="25" t="s">
         <v>1929</v>
@@ -24102,7 +24101,7 @@
         <v>1931</v>
       </c>
       <c r="C725" s="152" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="F725" s="25" t="s">
         <v>1932</v>
@@ -24119,7 +24118,7 @@
         <v>1934</v>
       </c>
       <c r="C726" s="152" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="F726" s="25" t="s">
         <v>1935</v>
@@ -24136,7 +24135,7 @@
         <v>1937</v>
       </c>
       <c r="C727" s="152" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="F727" s="25" t="s">
         <v>1938</v>
@@ -24153,7 +24152,7 @@
         <v>1940</v>
       </c>
       <c r="C728" s="152" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="F728" s="25" t="s">
         <v>1938</v>
@@ -24170,7 +24169,7 @@
         <v>1941</v>
       </c>
       <c r="C729" s="152" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="F729" s="25" t="s">
         <v>1938</v>
@@ -24187,7 +24186,7 @@
         <v>1942</v>
       </c>
       <c r="C730" s="152" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="F730" s="25" t="s">
         <v>1938</v>
@@ -24204,7 +24203,7 @@
         <v>1943</v>
       </c>
       <c r="C731" s="152" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
       <c r="F731" s="25" t="s">
         <v>1938</v>
@@ -24221,7 +24220,7 @@
         <v>1944</v>
       </c>
       <c r="C732" s="152" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="F732" s="25" t="s">
         <v>1938</v>
@@ -24238,7 +24237,7 @@
         <v>1945</v>
       </c>
       <c r="C733" s="152" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="F733" s="25" t="s">
         <v>1938</v>
@@ -24255,7 +24254,7 @@
         <v>1946</v>
       </c>
       <c r="C734" s="152" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="F734" s="25" t="s">
         <v>1947</v>
@@ -24272,7 +24271,7 @@
         <v>1949</v>
       </c>
       <c r="C735" s="152" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="F735" s="25" t="s">
         <v>1947</v>
@@ -24289,7 +24288,7 @@
         <v>1950</v>
       </c>
       <c r="C736" s="152" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="F736" s="25" t="s">
         <v>1947</v>
@@ -24306,7 +24305,7 @@
         <v>1951</v>
       </c>
       <c r="C737" s="152" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="F737" s="25" t="s">
         <v>1947</v>
@@ -24323,7 +24322,7 @@
         <v>1952</v>
       </c>
       <c r="C738" s="152" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="F738" s="25" t="s">
         <v>1947</v>
@@ -24340,7 +24339,7 @@
         <v>1953</v>
       </c>
       <c r="C739" s="152" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="F739" s="25" t="s">
         <v>1947</v>
@@ -24357,7 +24356,7 @@
         <v>1892</v>
       </c>
       <c r="C740" s="152" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="D740" s="14"/>
       <c r="F740" s="16" t="s">
@@ -24375,7 +24374,7 @@
         <v>1957</v>
       </c>
       <c r="C741" s="152" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="F741" s="25" t="s">
         <v>1958</v>
@@ -24392,7 +24391,7 @@
         <v>1960</v>
       </c>
       <c r="C742" s="152" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="F742" s="25" t="s">
         <v>1961</v>
@@ -24409,7 +24408,7 @@
         <v>1963</v>
       </c>
       <c r="C743" s="152" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="F743" s="25" t="s">
         <v>1964</v>
@@ -24426,7 +24425,7 @@
         <v>1966</v>
       </c>
       <c r="C744" s="152" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="F744" s="25" t="s">
         <v>1967</v>
@@ -24443,7 +24442,7 @@
         <v>1969</v>
       </c>
       <c r="C745" s="152" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="F745" s="121" t="s">
         <v>1970</v>
@@ -24460,7 +24459,7 @@
         <v>1972</v>
       </c>
       <c r="C746" s="152" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="F746" s="25" t="s">
         <v>1973</v>
@@ -24477,7 +24476,7 @@
         <v>1975</v>
       </c>
       <c r="C747" s="152" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="F747" s="25" t="s">
         <v>1976</v>
@@ -24494,7 +24493,7 @@
         <v>1978</v>
       </c>
       <c r="C748" s="152" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="F748" s="25" t="s">
         <v>1979</v>
@@ -24511,7 +24510,7 @@
         <v>1981</v>
       </c>
       <c r="C749" s="152" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="F749" s="25" t="s">
         <v>1982</v>
@@ -24528,7 +24527,7 @@
         <v>1984</v>
       </c>
       <c r="C750" s="152" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="F750" s="25" t="s">
         <v>1985</v>
@@ -24545,7 +24544,7 @@
         <v>1987</v>
       </c>
       <c r="C751" s="152" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="F751" s="25" t="s">
         <v>1988</v>
@@ -24562,7 +24561,7 @@
         <v>1892</v>
       </c>
       <c r="C752" s="152" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="D752" s="14"/>
       <c r="F752" s="16" t="s">
@@ -24580,7 +24579,7 @@
         <v>1993</v>
       </c>
       <c r="C753" s="152" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="F753" s="25" t="s">
         <v>1994</v>
@@ -24597,7 +24596,7 @@
         <v>1996</v>
       </c>
       <c r="C754" s="152" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="F754" s="25" t="s">
         <v>1997</v>
@@ -24614,7 +24613,7 @@
         <v>1999</v>
       </c>
       <c r="C755" s="152" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="F755" s="25" t="s">
         <v>2000</v>
@@ -24631,7 +24630,7 @@
         <v>2002</v>
       </c>
       <c r="C756" s="152" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F756" s="25" t="s">
         <v>2000</v>
@@ -24648,7 +24647,7 @@
         <v>2003</v>
       </c>
       <c r="C757" s="152" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="F757" s="25" t="s">
         <v>2000</v>
@@ -24665,7 +24664,7 @@
         <v>2004</v>
       </c>
       <c r="C758" s="152" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="F758" s="25" t="s">
         <v>2000</v>
@@ -24682,7 +24681,7 @@
         <v>2005</v>
       </c>
       <c r="C759" s="152" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="F759" s="25" t="s">
         <v>2000</v>
@@ -24699,7 +24698,7 @@
         <v>2006</v>
       </c>
       <c r="C760" s="152" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="F760" s="25" t="s">
         <v>2007</v>
@@ -24716,7 +24715,7 @@
         <v>2009</v>
       </c>
       <c r="C761" s="152" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="F761" s="25" t="s">
         <v>2010</v>
@@ -24733,7 +24732,7 @@
         <v>2012</v>
       </c>
       <c r="C762" s="152" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="F762" s="25" t="s">
         <v>2013</v>
@@ -24750,7 +24749,7 @@
         <v>2015</v>
       </c>
       <c r="C763" s="152" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="F763" s="25" t="s">
         <v>2016</v>
@@ -24767,7 +24766,7 @@
         <v>2018</v>
       </c>
       <c r="C764" s="152" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="F764" s="25" t="s">
         <v>2019</v>
@@ -24784,7 +24783,7 @@
         <v>2021</v>
       </c>
       <c r="C765" s="152" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="F765" s="25" t="s">
         <v>2022</v>
@@ -24801,7 +24800,7 @@
         <v>2024</v>
       </c>
       <c r="C766" s="152" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="F766" s="25" t="s">
         <v>2025</v>
@@ -24818,7 +24817,7 @@
         <v>2027</v>
       </c>
       <c r="C767" s="152" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
       <c r="F767" s="25" t="s">
         <v>2028</v>
@@ -24835,7 +24834,7 @@
         <v>2030</v>
       </c>
       <c r="C768" s="152" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="F768" s="25" t="s">
         <v>2028</v>
@@ -24852,7 +24851,7 @@
         <v>2031</v>
       </c>
       <c r="C769" s="152" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="F769" s="25" t="s">
         <v>2028</v>
@@ -24869,7 +24868,7 @@
         <v>2032</v>
       </c>
       <c r="C770" s="152" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="F770" s="25" t="s">
         <v>2028</v>
@@ -24886,7 +24885,7 @@
         <v>2033</v>
       </c>
       <c r="C771" s="152" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="F771" s="25" t="s">
         <v>2028</v>
@@ -24903,7 +24902,7 @@
         <v>2034</v>
       </c>
       <c r="C772" s="152" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="F772" s="25" t="s">
         <v>2035</v>
@@ -24920,7 +24919,7 @@
         <v>1892</v>
       </c>
       <c r="C773" s="152" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="D773" s="14"/>
       <c r="F773" s="16" t="s">
@@ -24938,7 +24937,7 @@
         <v>2039</v>
       </c>
       <c r="C774" s="152" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="F774" s="25" t="s">
         <v>2040</v>
@@ -24955,7 +24954,7 @@
         <v>2042</v>
       </c>
       <c r="C775" s="152" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="F775" s="25" t="s">
         <v>2043</v>
@@ -24972,7 +24971,7 @@
         <v>2045</v>
       </c>
       <c r="C776" s="152" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="F776" s="25" t="s">
         <v>2046</v>
@@ -24989,7 +24988,7 @@
         <v>2048</v>
       </c>
       <c r="C777" s="152" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="F777" s="25" t="s">
         <v>2049</v>
@@ -25006,7 +25005,7 @@
         <v>2051</v>
       </c>
       <c r="C778" s="152" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="F778" s="25" t="s">
         <v>2052</v>
@@ -25023,7 +25022,7 @@
         <v>2054</v>
       </c>
       <c r="C779" s="152" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
       <c r="F779" s="25" t="s">
         <v>2055</v>
@@ -25040,7 +25039,7 @@
         <v>2057</v>
       </c>
       <c r="C780" s="152" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="F780" s="25" t="s">
         <v>2058</v>
@@ -25057,7 +25056,7 @@
         <v>2060</v>
       </c>
       <c r="C781" s="152" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="F781" s="25" t="s">
         <v>2061</v>
@@ -25074,7 +25073,7 @@
         <v>2063</v>
       </c>
       <c r="C782" s="152" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="F782" s="25" t="s">
         <v>2064</v>
@@ -25091,7 +25090,7 @@
         <v>2066</v>
       </c>
       <c r="C783" s="152" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="F783" s="25" t="s">
         <v>2067</v>
@@ -25108,7 +25107,7 @@
         <v>2069</v>
       </c>
       <c r="C784" s="152" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="F784" s="25" t="s">
         <v>2070</v>
@@ -25125,7 +25124,7 @@
         <v>2072</v>
       </c>
       <c r="C785" s="152" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="F785" s="25" t="s">
         <v>2073</v>
@@ -25142,7 +25141,7 @@
         <v>2075</v>
       </c>
       <c r="C786" s="152" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="F786" s="25" t="s">
         <v>2073</v>
@@ -25159,7 +25158,7 @@
         <v>2076</v>
       </c>
       <c r="C787" s="152" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="F787" s="25" t="s">
         <v>2073</v>
@@ -25176,7 +25175,7 @@
         <v>2077</v>
       </c>
       <c r="C788" s="152" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="F788" s="25" t="s">
         <v>2073</v>
@@ -25193,7 +25192,7 @@
         <v>2079</v>
       </c>
       <c r="C789" s="152" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="D789" s="115"/>
       <c r="F789" s="116" t="s">
@@ -25211,7 +25210,7 @@
         <v>2082</v>
       </c>
       <c r="C790" s="152" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="F790" s="27"/>
     </row>
@@ -25223,7 +25222,7 @@
         <v>2084</v>
       </c>
       <c r="C791" s="152" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="D791" s="122"/>
       <c r="F791" s="123" t="s">
@@ -25241,7 +25240,7 @@
         <v>2087</v>
       </c>
       <c r="C792" s="152" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="D792" s="122"/>
       <c r="F792" s="123" t="s">
@@ -25259,7 +25258,7 @@
         <v>2090</v>
       </c>
       <c r="C793" s="152" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="D793" s="122"/>
       <c r="F793" s="123" t="s">
@@ -25277,7 +25276,7 @@
         <v>2091</v>
       </c>
       <c r="C794" s="152" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
       <c r="D794" s="122"/>
       <c r="F794" s="123" t="s">
@@ -25295,7 +25294,7 @@
         <v>2092</v>
       </c>
       <c r="C795" s="152" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="D795" s="122"/>
       <c r="F795" s="123" t="s">
@@ -25313,7 +25312,7 @@
         <v>2093</v>
       </c>
       <c r="C796" s="152" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="D796" s="122"/>
       <c r="F796" s="123" t="s">
@@ -25331,7 +25330,7 @@
         <v>2094</v>
       </c>
       <c r="C797" s="152" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="D797" s="122"/>
       <c r="F797" s="123" t="s">
@@ -25349,7 +25348,7 @@
         <v>2097</v>
       </c>
       <c r="C798" s="152" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="D798" s="122"/>
       <c r="F798" s="123" t="s">
@@ -25367,7 +25366,7 @@
         <v>2100</v>
       </c>
       <c r="C799" s="152" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
       <c r="D799" s="122"/>
       <c r="F799" s="123" t="s">
@@ -25385,7 +25384,7 @@
         <v>2103</v>
       </c>
       <c r="C800" s="152" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="F800" s="123" t="s">
         <v>2104</v>
@@ -25402,7 +25401,7 @@
         <v>2106</v>
       </c>
       <c r="C801" s="152" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="D801" s="28"/>
       <c r="F801" s="34" t="s">
@@ -25420,7 +25419,7 @@
         <v>2109</v>
       </c>
       <c r="C802" s="152" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="F802" s="126" t="s">
         <v>2110</v>
@@ -25437,7 +25436,7 @@
         <v>2113</v>
       </c>
       <c r="C803" s="152" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="F803" s="126" t="s">
         <v>2114</v>
@@ -25454,7 +25453,7 @@
         <v>2117</v>
       </c>
       <c r="C804" s="152" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
       <c r="F804" s="126" t="s">
         <v>2118</v>
@@ -25471,7 +25470,7 @@
         <v>2121</v>
       </c>
       <c r="C805" s="152" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="F805" s="126" t="s">
         <v>2122</v>
@@ -25488,7 +25487,7 @@
         <v>2125</v>
       </c>
       <c r="C806" s="152" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
       <c r="F806" s="126" t="s">
         <v>2126</v>
@@ -25505,7 +25504,7 @@
         <v>2129</v>
       </c>
       <c r="C807" s="152" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="F807" s="126" t="s">
         <v>2130</v>
@@ -25522,7 +25521,7 @@
         <v>2133</v>
       </c>
       <c r="C808" s="152" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
       <c r="F808" s="126" t="s">
         <v>2134</v>
@@ -25539,7 +25538,7 @@
         <v>2137</v>
       </c>
       <c r="C809" s="158" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="D809" s="127" t="s">
         <v>235</v>
@@ -25562,7 +25561,7 @@
         <v>2141</v>
       </c>
       <c r="C810" s="152" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="D810" s="129" t="s">
         <v>2142</v>
@@ -25585,7 +25584,7 @@
         <v>2146</v>
       </c>
       <c r="C811" s="152" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="D811" s="127" t="s">
         <v>210</v>
@@ -25608,7 +25607,7 @@
         <v>2150</v>
       </c>
       <c r="C812" s="152" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="D812" s="130" t="s">
         <v>424</v>
@@ -25631,7 +25630,7 @@
         <v>2154</v>
       </c>
       <c r="C813" s="152" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="D813" s="132" t="s">
         <v>2155</v>
@@ -25654,7 +25653,7 @@
         <v>2159</v>
       </c>
       <c r="C814" s="152" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="D814" s="130" t="s">
         <v>173</v>
@@ -25677,7 +25676,7 @@
         <v>2163</v>
       </c>
       <c r="C815" s="152" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
       <c r="D815" s="133" t="s">
         <v>2164</v>
@@ -25700,7 +25699,7 @@
         <v>2168</v>
       </c>
       <c r="C816" s="152" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="D816" s="135" t="s">
         <v>2169</v>
@@ -25723,7 +25722,7 @@
         <v>2173</v>
       </c>
       <c r="C817" s="152" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="D817" s="133" t="s">
         <v>2174</v>
@@ -25746,7 +25745,7 @@
         <v>2178</v>
       </c>
       <c r="C818" s="152" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="D818" s="138" t="s">
         <v>2179</v>
@@ -25769,7 +25768,7 @@
         <v>2183</v>
       </c>
       <c r="C819" s="152" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="D819" s="138" t="s">
         <v>2169</v>
@@ -25792,7 +25791,7 @@
         <v>2187</v>
       </c>
       <c r="C820" s="152" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="D820" s="136" t="s">
         <v>2174</v>
@@ -25815,7 +25814,7 @@
         <v>2191</v>
       </c>
       <c r="C821" s="158" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="D821" s="141" t="s">
         <v>2192</v>
@@ -25838,7 +25837,7 @@
         <v>2196</v>
       </c>
       <c r="C822" s="158" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="D822" s="141" t="s">
         <v>2197</v>
@@ -25861,7 +25860,7 @@
         <v>2201</v>
       </c>
       <c r="C823" s="158" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="D823" s="139" t="s">
         <v>210</v>
@@ -25884,7 +25883,7 @@
         <v>1098</v>
       </c>
       <c r="C824" s="152" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="D824" s="144"/>
       <c r="F824" s="61" t="s">
@@ -25902,7 +25901,7 @@
         <v>1102</v>
       </c>
       <c r="C825" s="152" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="D825" s="144"/>
       <c r="F825" s="61" t="s">
@@ -25920,7 +25919,7 @@
         <v>1106</v>
       </c>
       <c r="C826" s="152" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="D826" s="144"/>
       <c r="F826" s="61" t="s">
@@ -25938,7 +25937,7 @@
         <v>1110</v>
       </c>
       <c r="C827" s="152" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="D827" s="144"/>
       <c r="F827" s="61" t="s">
@@ -25956,7 +25955,7 @@
         <v>1090</v>
       </c>
       <c r="C828" s="152" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="D828" s="144"/>
       <c r="F828" s="61" t="s">
@@ -25974,7 +25973,7 @@
         <v>1094</v>
       </c>
       <c r="C829" s="152" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="D829" s="144"/>
       <c r="F829" s="61" t="s">
@@ -25992,7 +25991,7 @@
         <v>1122</v>
       </c>
       <c r="C830" s="152" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="D830" s="144"/>
       <c r="F830" s="61" t="s">
@@ -26010,7 +26009,7 @@
         <v>1126</v>
       </c>
       <c r="C831" s="152" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="D831" s="144"/>
       <c r="F831" s="60" t="s">
@@ -26028,7 +26027,7 @@
         <v>1130</v>
       </c>
       <c r="C832" s="152" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="D832" s="144"/>
       <c r="F832" s="145" t="s">
@@ -26046,7 +26045,7 @@
         <v>992</v>
       </c>
       <c r="C833" s="152" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="D833" s="144"/>
       <c r="F833" s="148" t="s">
@@ -26064,7 +26063,7 @@
         <v>995</v>
       </c>
       <c r="C834" s="152" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="D834" s="144"/>
       <c r="F834" s="148" t="s">
@@ -26082,7 +26081,7 @@
         <v>998</v>
       </c>
       <c r="C835" s="152" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="D835" s="144"/>
       <c r="F835" s="148" t="s">
@@ -26100,7 +26099,7 @@
         <v>1001</v>
       </c>
       <c r="C836" s="152" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="D836" s="144"/>
       <c r="F836" s="148" t="s">
@@ -26118,7 +26117,7 @@
         <v>1004</v>
       </c>
       <c r="C837" s="152" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="D837" s="144"/>
       <c r="F837" s="148" t="s">
@@ -26136,7 +26135,7 @@
         <v>1007</v>
       </c>
       <c r="C838" s="152" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="D838" s="144"/>
       <c r="F838" s="148" t="s">
@@ -26154,7 +26153,7 @@
         <v>1010</v>
       </c>
       <c r="C839" s="152" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="D839" s="144"/>
       <c r="F839" s="148" t="s">
@@ -26172,7 +26171,7 @@
         <v>1013</v>
       </c>
       <c r="C840" s="152" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="D840" s="144"/>
       <c r="F840" s="148" t="s">
@@ -26190,7 +26189,7 @@
         <v>2231</v>
       </c>
       <c r="C841" s="152" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
       <c r="D841" s="144"/>
       <c r="F841" s="148" t="s">
@@ -26208,7 +26207,7 @@
         <v>2235</v>
       </c>
       <c r="C842" s="152" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="D842" s="144"/>
       <c r="F842" s="148" t="s">
@@ -26226,7 +26225,7 @@
         <v>2239</v>
       </c>
       <c r="C843" s="152" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
       <c r="D843" s="144"/>
       <c r="F843" s="148" t="s">
@@ -26244,7 +26243,7 @@
         <v>2243</v>
       </c>
       <c r="C844" s="152" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="D844" s="144"/>
       <c r="F844" s="148" t="s">
@@ -26262,7 +26261,7 @@
         <v>2247</v>
       </c>
       <c r="C845" s="152" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="D845" s="144"/>
       <c r="F845" s="148" t="s">
@@ -26280,7 +26279,7 @@
         <v>2251</v>
       </c>
       <c r="C846" s="152" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="D846" s="144"/>
       <c r="F846" s="148" t="s">
@@ -26298,7 +26297,7 @@
         <v>2254</v>
       </c>
       <c r="C847" s="152" t="s">
-        <v>3091</v>
+        <v>3090</v>
       </c>
       <c r="D847" s="144"/>
       <c r="F847" s="148" t="s">
@@ -26316,7 +26315,7 @@
         <v>2257</v>
       </c>
       <c r="C848" s="152" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="D848" s="144" t="s">
         <v>108</v>
@@ -26339,7 +26338,7 @@
         <v>2260</v>
       </c>
       <c r="C849" s="152" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
       <c r="D849" s="144" t="s">
         <v>113</v>
@@ -26362,7 +26361,7 @@
         <v>2263</v>
       </c>
       <c r="C850" s="152" t="s">
-        <v>3094</v>
+        <v>3093</v>
       </c>
       <c r="D850" s="144" t="s">
         <v>132</v>
@@ -26385,7 +26384,7 @@
         <v>2266</v>
       </c>
       <c r="C851" s="152" t="s">
-        <v>3095</v>
+        <v>3094</v>
       </c>
       <c r="D851" s="144" t="s">
         <v>135</v>
@@ -26408,7 +26407,7 @@
         <v>2269</v>
       </c>
       <c r="C852" s="152" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
       <c r="D852" s="144" t="s">
         <v>147</v>
@@ -26454,7 +26453,7 @@
         <v>2276</v>
       </c>
       <c r="C854" s="152" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="D854" s="144" t="s">
         <v>170</v>
@@ -26477,7 +26476,7 @@
         <v>2279</v>
       </c>
       <c r="C855" s="159" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
       <c r="D855" s="155"/>
       <c r="E855" s="153"/>
@@ -26485,7 +26484,7 @@
         <v>2280</v>
       </c>
       <c r="G855" s="157" t="s">
-        <v>2281</v>
+        <v>3181</v>
       </c>
     </row>
   </sheetData>
